--- a/Streamlit-SEC-RAG/benchmark.xlsx
+++ b/Streamlit-SEC-RAG/benchmark.xlsx
@@ -1,19 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohit Devanaboina\Documents\GitHub\BA-882-Pipeline-Project\Streamlit-SEC-RAG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBA6673-0955-4AA3-8A8B-7ED38823C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="questions_and_answers" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Analysis" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Old questions_and_answers" sheetId="3" r:id="rId6"/>
+    <sheet name="questions_and_answers" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="152">
   <si>
     <t>Question</t>
   </si>
@@ -34,9 +55,6 @@
   </si>
   <si>
     <t>Absolute percentage error2</t>
-  </si>
-  <si>
-    <t>Self-RAG + Reranking</t>
   </si>
   <si>
     <t>Absolute percentage error3</t>
@@ -56,9 +74,6 @@
   <si>
     <t xml:space="preserve">Amazon's total revenue for the year 2023 was $574.785 billion. This figure represents the company's total net sales for the 12 months ended December 31, 2023.
 </t>
-  </si>
-  <si>
-    <t>What is the total of the share repurchase activities Meta engaged in 2024</t>
   </si>
   <si>
     <t xml:space="preserve">During the nine months
@@ -68,41 +83,7 @@
 </t>
   </si>
   <si>
-    <t>In 2024, Meta engaged in share repurchase activities totaling 14.64 b i l l i o n ∗ ∗ d u r i n g t h e f i r s t q u a r t e r ( J a n u a r y t o M a r c h ) a n d ∗ ∗ 14.64billion∗∗duringthefirstquarter(JanuarytoMarch)and∗∗20.03 billion during the second half of the year (up to September). Therefore, the total share repurchase activities for 2024 amount to $34.67 billion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.81billiononsharerepurchaseactivitiesduringtheninemonthsendedSeptember30,2024.Thisamountincludes14.64 billion for the first quarter and $20.95 billion for the second quarter. The total reflects the company's ongoing share repurchase program authorized by its board of directors.
-</t>
-  </si>
-  <si>
-    <t>What was Nvidia largest segment by revenue for the year ended January 30, 2022</t>
-  </si>
-  <si>
-    <t>Nvidia's largest segment by revenue for the year ended January 30, 2022, was the Gaming segment. The Gaming segment generated 12 , 462 m i l l i o n i n r e v e n u e , f o l l o w e d c l o s e l y b y t h e D a t a C e n t e r s e g m e n t , w h i c h g e n e r a t e d 12,462 million</t>
-  </si>
-  <si>
     <t>For the year ended January 30, 2022, Nvidia's largest segment by revenue was the Gaming segment. This segment generated approximately $12.5 billion in revenue, making it the primary driver of the company's overall financial performance during that period.</t>
-  </si>
-  <si>
-    <t>For the year ended January 30, 2022, Nvidia's largest segment by revenue was Gaming, which generated 12 , 462 m i l l i o n ∗ ∗ . T h i s w a s f o l l o w e d b y t h e ∗ ∗ D a t a C e n t e r ∗ ∗ s e g m e n t w i t h ∗ ∗ 12,462million∗∗.Thiswasfollowedbythe∗∗DataCenter∗∗segmentwith∗∗10,613 million in revenue (1, 2).</t>
-  </si>
-  <si>
-    <t>Nvidia's highest revenue segment for the fiscal year ending January 30, 2022, was the Gaming segment, which generated 12 , 462 m i l l i o n . T h e s e c o n d h i g h e s t w a s t h e D a t a C e n t e r s e g m e n t , w i t h 12,462million.ThesecondhighestwastheDataCentersegment,with10,613 million in revenue. Overall, Nvidia reported total revenue of $26,914 million for that fiscal year.</t>
-  </si>
-  <si>
-    <t>How much is Google spending on research and development for 2023?</t>
-  </si>
-  <si>
-    <t>31,370 million $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which drug category has Eli Lilly seen the largest percentage decrease in Net Sales year on year in 2024? How much was the percentage decrease? </t>
-  </si>
-  <si>
-    <t>The drug category with the largest year-on-year percentage decrease in Net Sales for Eli Lilly in 2024 was "Forteo®," which saw a decrease of $61 million (52%)</t>
-  </si>
-  <si>
-    <t>The drug category with the largest year-on-year percentage decrease in Net Sales for Eli Lilly in 2024 was "Forteo®," which saw a decrease of $61 million (50.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">For 2022-2024, which product line has the highest growth for Apple's (AAPL) total revenue? What's the revenue across theses years? </t>
@@ -124,47 +105,7 @@
 </t>
   </si>
   <si>
-    <t>Answer: For the years 2022-2024, the product line with the highest growth in Apple's total revenue is Services. The revenue figures across these years are as follows: 2022: $78,129 million 2023: $85,200 million 2024: $96,169 million The growth in revenue for Services from 2022 to 2024 is significant, increasing from 78 , 129 m i l l i o n i n 2022 t o 78,129millionin2022to96,169 million in 2024, which represents a growth of approximately 23% over the period (78,129 to 96,169) (1, 2, 3). Citations: Apple Inc. (AAPL) 10-K report for Sep. 24, 2022 Apple Inc. (AAPL) 10-K report for Sep. 30, 2023 Apple Inc. (AAPL) 10-K report for Sep. 28, 2024</t>
-  </si>
-  <si>
     <t>{'The product line with the highest revenue growth for Apple from 2022 to 2024 is Services, with revenue figures of $78,129 million in 2022, $85,200 million in 2023, and $96,169 million in 2024. This represents a growth of approximately 23.1% over the two years. In comparison, the total net sales for Apple were $394,328 million in 2022, $383,285 million in 2023, and $391,035 million in 2024.'}</t>
-  </si>
-  <si>
-    <t>What significant accounting policy changes, if any, did Tesla disclose in Q3 2022?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recently adopted accounting pronouncements
-In November 2021, the FASB issued ASU No. 2021-10, Government Assistance (Topic 832). This ASU requires business
-entities to disclose information about government assistance they receive if the transactions were accounted for by analogy to either
-a grant or a contribution accounting model. The disclosure requirements include the nature of the transaction and the related
-accounting policy used, the line items on the balance sheets and statements of operations that are affected and the amounts
-applicable to each financial statement line item and the significant terms and conditions of the transactions. The ASU is effective
-for annual periods beginning after December 15, 2021. The disclosure requirements can be applied either retrospectively or
-prospectively to all transactions in the scope of the amendments that are reflected in the financial statements at the date of initial
-application and new transactions that are entered into after the date of initial application. We adopted the ASU prospectively on
-January 1, 2022. The additional annual disclosures required are not expected to have a material impact on our consolidated
-financial statements.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Q3 2022, Tesla disclosed a significant accounting policy change related to the treatment of its vehicle inventory. The company shifted from using the lower of cost or market method to a more consistent approach in valuing its inventory. This change was made to better align with the way the company manages its inventory and reflects the current market conditions. Additionally, Tesla continued to emphasize its focus on long-term growth and profitability, which may have influenced its accounting practices. For the most accurate and detailed information, it's always best to refer to Tesla's official financial statements or earnings calls from that period.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the Q3 2022 10-Q report, Tesla disclosed the following significant accounting policy changes:
-Use of Estimates: Management emphasized that the preparation of financial statements in accordance with U.S. GAAP requires estimates and assumptions that affect reported amounts. The COVID-19 pandemic has introduced uncertainty that could impact these estimates, particularly regarding resale value guarantees, sales return reserves, and inventory valuation. However, as of the report's issuance, management was not aware of any specific events that required updates to their estimates or materially affected asset or liability values (1).
-Reclassifications: Certain prior period balances were reclassified to conform to the current period presentation in the consolidated financial statements (1).
-Revenue Recognition: Tesla recognized revenue due to changes in regulation, which amounted to $288 million during the nine months ended September 30, 2022 (1).
-These changes reflect Tesla's ongoing adjustments to its accounting practices in response to external economic conditions and internal operational needs.
-Sources:
-Tesla, Inc. (TSLA) 10-Q report for Sep. 30, 2022.
-</t>
-  </si>
-  <si>
-    <t>In Q3 2022, Tesla disclosed that the interim consolidated financial statements were prepared on the same basis as the annual consolidated financial statements, reflecting all normal recurring adjustments necessary for a fair statement of results. They also noted that certain prior period balances had been reclassified to conform to the current period presentation. Additionally, they emphasized the use of estimates in financial reporting, particularly due to uncertainties stemming from the COVID-19 pandemic.</t>
-  </si>
-  <si>
-    <t>What legal proceedings or contingencies were disclosed by Amazon in Q3 2022 and how might they potentially impact Amazon ?</t>
   </si>
   <si>
     <t xml:space="preserve">In January 2022, VideoLabs, Inc. and VL Collective IP LLC filed a complaint against Amazon.com, Inc. and Amazon Web
@@ -182,29 +123,6 @@
 attempted monopolization, and consumer protection and unjust enrichment claims. </t>
   </si>
   <si>
-    <t xml:space="preserve">In Q3 2022, Amazon disclosed several legal proceedings and contingencies that could potentially impact the company. One significant issue was related to antitrust investigations and lawsuits, particularly in the European Union and the United States. These legal challenges could lead to regulatory changes, fines, or operational restrictions that might affect Amazon's business practices and market competitiveness.
-Additionally, Amazon faced various lawsuits concerning labor practices, intellectual property disputes, and consumer protection issues. The outcomes of these legal proceedings could result in financial liabilities, changes in operational procedures, or reputational damage, which might influence investor confidence and customer perception.
-Overall, the legal landscape for Amazon in Q3 2022 highlighted potential risks that could affect its financial performance, operational strategies, and market position in the long term.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Q3 2022, Amazon disclosed several legal proceedings and contingencies that could potentially impact the company. Key points include:
-Kove IO, Inc. Litigation: Kove filed a complaint against Amazon Web Services, alleging patent infringement related to Amazon S3 and DynamoDB. The case was stayed in March 2022 but was lifted in November 2022. By July 2023, Kove claimed that potential damages could range from 517millionto1.03 billion if Amazon were found liable. Amazon disputes these allegations and intends to defend itself vigorously (1).
-Dialect, LLC Complaint: This complaint involves allegations that Amazon's Alexa-enabled products infringe multiple patents. The damages sought are unspecified, and Amazon also disputes these claims (1).
-Other Legal Proceedings: Amazon is involved in various claims and litigation, including potential regulatory proceedings related to patent and intellectual property matters, taxes, labor and employment, competition and antitrust, privacy and data protection, and consumer protection. The outcomes of these legal proceedings are unpredictable and could materially affect Amazon's operating results and cash flows (1).
-Financial Impact: The legal proceedings and contingencies are inherently uncertain, and if estimates or assumptions change, Amazon may experience losses that could significantly impact its business and financial position (1).
-These legal challenges highlight the potential financial risks and operational impacts that Amazon faces due to ongoing litigation and regulatory scrutiny.
-Sources:
-Amazon.com, Inc. (AMZN) 10-Q report for Sep. 30, 2022.
-</t>
-  </si>
-  <si>
-    <t>In Q3 2022, Amazon disclosed various legal proceedings, including patent infringement claims from Kove IO, Inc. and Dialect, LLC, which could result in significant damages if found liable, with estimates ranging from 517 m i l l i o n t o o v e r 517milliontoover1 billion. Additionally, Amazon is involved in disputes over non-income taxes and tax assessments in multiple jurisdictions, which could lead to further financial liabilities. The outcomes of these legal matters are uncertain and may materially impact Amazon's financial results and cash flows.</t>
-  </si>
-  <si>
-    <t>Has there been any significant change in Apple's operating expenses in Q3 2022? If so, what are the key drivers for this change?</t>
-  </si>
-  <si>
     <t>Yes. Reason is increase in R&amp;D, and administrative/selling expenditure.</t>
   </si>
   <si>
@@ -217,16 +135,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Yes, there has been a significant change in Apple's operating expenses in Q3 2022 compared to Q3 2021. In Q3 2022, Apple's total operating expenses were 12 , 809 m i l l i o n ∗ ∗ , w h i c h r e p r e s e n t s a n i n c r e a s e f r o m ∗ ∗ 12,809million∗∗,whichrepresentsanincreasefrom∗∗11,129 million in Q3 2021. This indicates an increase of $1,680 million or approximately 15.1% year-over-year. The key drivers for this change include: Research and Development (R&amp;D): R&amp;D expenses increased from 5 , 717 m i l l i o n ∗ ∗ i n Q 32021 t o ∗ ∗ 5,717million∗∗inQ32021to∗∗6,797 million in Q3 2022, reflecting a rise of $1,080 million or about 18.9%. Selling, General and Administrative (SG&amp;A): SG&amp;A expenses also saw an increase, rising from 5 , 412 m i l l i o n ∗ ∗ i n Q 32021 t o ∗ ∗ 5,412million∗∗inQ32021to∗∗6,012 million in Q3 2022, which is an increase of $600 million or approximately 11.1%. These increases in operating expenses were primarily driven by higher investments in R&amp;D and administrative costs as Apple continued to expand its product offerings and services (1). Sources: Apple Inc. (AAPL) 10-Q report for Jun. 25, 2022.
-</t>
-  </si>
-  <si>
-    <t>Yes, there was a significant change in Apple's operating expenses in Q3 2022. The total operating expenses increased to 12 , 809 m i l l i o n f r o m 12,809millionfrom11,129 million in the same quarter of the previous year, driven primarily by higher research and development costs, which rose to 6 , 797 m i l l i o n f r o m 6,797millionfrom5,717 million. Additionally, selling, general, and administrative expenses also increased, contributing to the overall rise in operating expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Microsoft's Q3 2022 Tax Rate higher or lower than the statutory federal income tax rate? </t>
-  </si>
-  <si>
     <t>19%, lower</t>
   </si>
   <si>
@@ -240,9 +148,6 @@
   </si>
   <si>
     <t>Microsoft's effective tax rate for Q3 2022 was 19%, which is lower than the statutory federal income tax rate of 21%. This lower rate was primarily due to earnings taxed at lower rates in foreign jurisdictions. Therefore, Microsoft's Q3 2022 tax rate is lower than the statutory federal income tax rate.</t>
-  </si>
-  <si>
-    <t>What is the change in Diluted earnings per share from Q3 2022 to Q3 2023 nine month period for Berkshire Hathaway BRK-B?</t>
   </si>
   <si>
     <t>Quantitative - Multi Stock/Year</t>
@@ -259,26 +164,7 @@
 Thus, the change in Diluted earnings per share from Q3 2022 to Q3 2023 for Berkshire Hathaway BRK-B is 45.53 USD.</t>
   </si>
   <si>
-    <t>The diluted earnings per share for Berkshire Hathaway (BRK-B) for the nine-month period ended September 30, 2023, is 26.95 , c o m p a r e d t o − 26.95,comparedto−18.51 for the same period in 2022. This represents a change of $45.46.</t>
-  </si>
-  <si>
-    <t>compare the total revenue percentage growth rate for Google and Microsoft from 2022 till 2023, for the same period</t>
-  </si>
-  <si>
     <t>GOOG 9 % vs META -1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To compare the total revenue percentage growth rate for Google (Alphabet Inc.) and Microsoft from 2022 to 2023, we need the total revenue figures for both companies for those years.
-From the provided documents, we have the following information for Google:
-Total Revenues for 2022: $282.836 billion (as of Dec. 31, 2022)
-Total Revenues for 2023: {NONE} (the document does not provide this information)
-For Microsoft, the documents do not contain any revenue figures for 2022 or 2023 either.
-Since the necessary data for both companies is not available in the documents, we cannot calculate or compare the total revenue percentage growth rates.
-Therefore, the answer is: {NONE}
-</t>
-  </si>
-  <si>
-    <t>How has stock based compensation increased from Tesla over the past three years</t>
   </si>
   <si>
     <t xml:space="preserve">2021: The total stock-based compensation expense was $2,121 million.
@@ -300,12 +186,6 @@
 In summary, after a decline from 2021 to 2022, Tesla's stock-based compensation expense increased in 2023 compared to 2022, but it remains lower than the 2021 figure (1,812 million in 2023 vs. 2,121 million in 2021) (1, 2, 3)</t>
   </si>
   <si>
-    <t>Tesla's stock-based compensation has fluctuated over the past three years, with expenses reported as follows: 2.12 b i l l i o n i n 2021 , 2.12billionin2021,1.56 billion in 2022, and 1.81 b i l l i o n i n 2023. T h e t o t a l s t o c k − b a s e d c o m p e n s a t i o n e x p e n s e f o r t h e f i r s t n i n e m o n t h s o f 2023 w a s 1.81billionin2023.Thetotalstock−basedcompensationexpenseforthefirstninemonthsof2023was1.33 billion, compared to $1.14 billion for the same period in 2022. Overall, there was a decrease from 2021 to 2022, followed by an increase in 2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare the gross profit margin of Eli Lilly and Tesla in 2022. </t>
-  </si>
-  <si>
     <t>TSLA 25.6 % vs LLY 76.8%</t>
   </si>
   <si>
@@ -313,21 +193,6 @@
 On the other hand, Tesla's gross profit margin for 2022 was around 27.9%. While this is a solid margin for the automotive industry, it is significantly lower than that of Eli Lilly, reflecting the different business models and cost structures of the two companies.
 In summary, Eli Lilly had a much higher gross profit margin compared to Tesla in 2022, highlighting the differences in their respective industries and operational efficiencies.
 </t>
-  </si>
-  <si>
-    <t>Answer: In 2022, the gross profit margin for Eli Lilly and Tesla can be calculated as follows: Eli Lilly: Total Revenues: $28,541.4 million Cost of Sales: $6,629.8 million Gross Profit = Revenues - Cost of Sales = 28 , 541.4 m i l l i o n − 28,541.4million−6,629.8 million = $21,911.6 million Gross Profit Margin = (Gross Profit / Revenues) * 100 = ( 21 , 911.6 m i l l i o n / 21,911.6million/28,541.4 million) * 100 ≈ 76.8% Tesla: Total Revenues: $81,462 million Gross Profit: $20,853 million Gross Profit Margin = (Gross Profit / Revenues) * 100 = ( 20 , 853 m i l l i o n / 20,853million/81,462 million) * 100 ≈ 25.6% Comparison: Eli Lilly's gross profit margin in 2022 was approximately 76.8%. Tesla's gross profit margin in 2022 was approximately 25.6%. Thus, Eli Lilly had a significantly higher gross profit margin compared to Tesla in 2022 (76.8% vs. 25.6%)【1】【2】【3】.</t>
-  </si>
-  <si>
-    <t>What percentage of Apple's total revenue did the Wearables, Home and Accessories segment contribute in the last three years (2022-2024)?</t>
-  </si>
-  <si>
-    <t>As of my last update in October 2023, I do not have the specific percentage contributions of Apple's Wearables, Home, and Accessories segment to the total revenue for the years 2022-2024. However, in recent years, this segment has generally been a growing part of Apple's business, contributing around 10-15% of total revenue in previous fiscal years. For the most accurate and up-to-date figures, I recommend checking Apple's official financial reports or investor relations website for the latest data.</t>
-  </si>
-  <si>
-    <t>In the last three years, the Wearables, Home and Accessories segment contributed the following percentages to Apple's total revenue: 10.5% in 2022, 10.4% in 2023, and 9.5% in 2024. The segment's net sales were 41 , 241 m i l l i o n i n 2022 , 41,241millionin2022,39,845 million in 2023, and 37 , 005 m i l l i o n i n 2024 , w i t h t o t a l r e v e n u e s o f 37,005millionin2024,withtotalrevenuesof394,328 million, 383 , 285 m i l l i o n , a n d 383,285million,and391,035 million respectively.</t>
-  </si>
-  <si>
-    <t>Compare the performance of Microsoft, Google and Amazon's cloud computing services in 2023</t>
   </si>
   <si>
     <t>Qualitative - Multi Stock/Year</t>
@@ -357,18 +222,6 @@
 </t>
   </si>
   <si>
-    <t>Answer: In 2022, the performance of Microsoft, Google, and Amazon's cloud computing services can be summarized as follows: Microsoft Revenue from Cloud Services: Microsoft reported significant growth in its cloud segment, specifically the "Intelligent Cloud" category, which includes Azure. For the fiscal year ending June 30, 2022, Microsoft Cloud revenue was approximately 91.2 b i l l i o n ∗ ∗ , u p f r o m ∗ ∗ 91.2billion∗∗,upfrom∗∗69.1 billion the previous year (a growth of about 32.1%) (6). Quarterly Performance: In the third quarter of 2022 (ending September 30), Microsoft generated 25.7 b i l l i o n ∗ ∗ f r o m i t s c l o u d s e r v i c e s , c o m p a r e d t o ∗ ∗ 25.7billion∗∗fromitscloudservices,comparedto∗∗20.7 billion in the same quarter of 2021 (a growth of about 24.2%) (5). Google Revenue from Google Cloud: Google Cloud revenue for the year ending December 31, 2022, was 26.3 b i l l i o n ∗ ∗ , u p f r o m ∗ ∗ 26.3billion∗∗,upfrom∗∗19.2 billion in 2021 (a growth of about 37.0%) (8). Quarterly Performance: In the first quarter of 2022 (ending March 31), Google Cloud generated 5.8 b i l l i o n ∗ ∗ , c o m p a r e d t o ∗ ∗ 5.8billion∗∗,comparedto∗∗4.0 billion in the same quarter of 2021 (a growth of about 45.0%) (7). Amazon Revenue from AWS: Although specific figures for Amazon's AWS in 2022 are not provided in the documents, AWS has historically been a leader in the cloud market. In 2021, AWS revenue was reported at $62 billion, and it continued to grow in 2022, maintaining a significant market share in the cloud services sector. Comparison Summary Growth Rates: Microsoft Cloud: 32.1% (annual), 24.2% (quarterly) Google Cloud: 37.0% (annual), 45.0% (quarterly) Amazon AWS: Specific growth rates for 2022 are not detailed, but AWS has consistently shown strong growth. Total Revenue: Microsoft Cloud: $91.2 billion Google Cloud: $26.3 billion Amazon AWS: Estimated to be over $62 billion in 2021, with growth into 2022. In conclusion, while all three companies showed strong growth in their cloud services, Google Cloud had the highest growth rate in 2022, followed closely by Microsoft. Amazon remains a dominant player, but specific growth figures for 2022 were not available in the provided documents.</t>
-  </si>
-  <si>
-    <t>Answer: In 2023, the performance of Microsoft, Google, and Amazon's cloud computing services can be compared based on their reported revenues and growth in their respective cloud segments. Microsoft Revenue from Cloud Services: Microsoft reported a significant increase in its cloud revenue, with the Intelligent Cloud segment generating 50.1 b i l l i o n ∗ ∗ f o r t h e s i x m o n t h s e n d e d D e c e m b e r 31 , 2023 , c o m p a r e d t o ∗ ∗ 50.1billion∗∗forthesixmonthsendedDecember31,2023,comparedto∗∗41.8 billion for the same period in 2022. This reflects a strong growth trajectory in their cloud offerings, particularly Azure and other cloud services, which contributed 33.7 b i l l i o n ∗ ∗ f o r t h e t h r e e m o n t h s e n d e d D e c e m b e r 31 , 2023 , u p f r o m ∗ ∗ 33.7billion∗∗forthethreemonthsendedDecember31,2023,upfrom∗∗27.1 billion in the same quarter of the previous year (6, 7). Overall Revenue: For the fiscal year ending June 30, 2023, Microsoft reported total revenue of 211.9 b i l l i o n ∗ ∗ , w i t h t h e I n t e l l i g e n t C l o u d s e g m e n t a c c o u n t i n g f o r ∗ ∗ 211.9billion∗∗,withtheIntelligentCloudsegmentaccountingfor∗∗87.9 billion (8). Google (Alphabet) Cloud Revenue: Google's cloud revenue for the year ended December 31, 2022, was 26.3 b i l l i o n ∗ ∗ , w h i c h s h o w s a s t e a d y i n c r e a s e f r o m ∗ ∗ 26.3billion∗∗,whichshowsasteadyincreasefrom∗∗19.2 billion in 2021. However, specific 2023 figures are not available in the provided documents (9). Overall Revenue: For the year ended December 31, 2022, Google reported total revenues of $282.8 billion, with cloud services being a growing but smaller portion compared to its overall business (10). Amazon (AWS) Cloud Revenue: The documents do not provide specific figures for Amazon's AWS performance in 2023. However, AWS has historically been a leader in the cloud market, contributing significantly to Amazon's overall revenue. Overall Revenue: Amazon's total revenue for 2022 was $514 billion, with AWS being a major contributor, but specific 2023 figures are not included in the provided documents (NONE). Summary Microsoft shows robust growth in its cloud segment, with significant increases in revenue year-over-year. Google is also growing its cloud services, but the figures are less detailed for 2023. Amazon's specific cloud performance for 2023 is not detailed in the documents, but it remains a key player in the cloud market. Overall, Microsoft appears to be leading in cloud revenue growth in 2023, while Google continues to expand its cloud services, and Amazon's performance remains significant but unspecified in the provided data.</t>
-  </si>
-  <si>
-    <t>Compare Broadcom and Nvidia's product mix in 2023</t>
-  </si>
-  <si>
-    <t>In 2023, Broadcom and Nvidia have distinct product mixes reflecting their respective focuses in the technology sector: Broadcom (AVGO): Broadcom's revenue streams are primarily divided into two segments: Products and Subscriptions/Services. During the 6 months ending April 30, 2023, Broadcom's product revenue was 13.8 b i l l i o n , w h i l e i t s s u b s c r i p t i o n s a n d s e r v i c e s r e v e n u e w a s 13.8billion,whileitssubscriptionsandservicesrevenuewas3.8 billion. The product segment typically includes semiconductors, system-on-chip products, and other hardware. Subscriptions and services are largely associated with software licenses. Nvidia (NVDA): Nvidia primarily focuses on manufacturing graphics processing units (GPUs) and related technologies, which are used in gaming, professional visualization, data centers, and automotive sectors. The company experienced notable growth in areas like artificial intelligence (AI) and infrastructure hardware (through its Mellanox acquisition). Nvidia's business strategy includes integrating hardware and software solutions to serve diverse sectors such as gaming, visualization, and AI. In terms of product mix, Broadcom has a stronger emphasis on both hardware and software licensing services, while Nvidia is more focused on leveraging its GPUs in emerging technologies like AI and deep learning, with a substantial presence in data centers and professional visualization markets.</t>
-  </si>
-  <si>
     <t xml:space="preserve">As of 2023, Broadcom and Nvidia have distinct product mixes that reflect their different focuses within the semiconductor industry.
 **Broadcom:**
 Broadcom is a diversified semiconductor company that offers a wide range of products across various segments. Its product mix includes:
@@ -388,27 +241,6 @@
 </t>
   </si>
   <si>
-    <t>Answer: In 2023, Broadcom and Nvidia had distinct product mixes reflecting their strategic focuses and market segments. Broadcom's Product Mix Broadcom's revenue streams are primarily divided into two categories: Products and Subscriptions and Services. For the 12 months ended January 29, 2023, Broadcom reported: Total Net Revenue: 26 , 277 m i l l i o n f r o m p r o d u c t s a n d 26,277millionfromproductsand6,926 million from subscriptions and services, indicating a strong emphasis on hardware products. Key Areas: Broadcom's product offerings include semiconductors for networking, broadband, enterprise storage, and wireless communications, which are critical for infrastructure and connectivity solutions. Nvidia's Product Mix Nvidia's product mix is more diversified across several segments, with a significant focus on Data Center and Gaming. For the 12 months ended January 29, 2023, Nvidia reported: Total Revenue: $26,974 million, with substantial contributions from: Data Center: $15,005 million, showcasing Nvidia's strong position in AI and cloud computing. Gaming: $9,067 million, reflecting its dominance in the gaming GPU market. Professional Visualization: 1 , 544 m i l l i o n , a n d ∗ ∗ A u t o m o t i v e ∗ ∗ : 1,544million,and∗∗Automotive∗∗:903 million, indicating growth in specialized markets. Comparison Revenue Focus: Broadcom's revenue is heavily weighted towards hardware products, while Nvidia has a balanced mix with significant revenue from both data center solutions and gaming. Market Segments: Nvidia is more focused on high-growth areas like AI and gaming, whereas Broadcom's offerings are more traditional, centered around infrastructure and connectivity. Growth Areas: Nvidia's growth is driven by advancements in AI and gaming technologies, while Broadcom continues to expand its semiconductor solutions for various industries. In summary, while both companies operate in the tech sector, their product mixes in 2023 reflect different strategic priorities, with Broadcom focusing on infrastructure and connectivity, and Nvidia emphasizing AI and gaming technologies.</t>
-  </si>
-  <si>
-    <t>What is Meta's strategy towards AI and how does it differ from that of Google as of this year?</t>
-  </si>
-  <si>
-    <t>Meta's strategy as of 2023 focuses on increasing its revenue through advertising and expanding its Reality Labs segment, which includes virtual and augmented reality initiatives. In 2023, Meta reported a significant increase in advertising revenue, reaching 131.9 b i l l i o n , u p f r o m 131.9billion,upfrom113.6 billion in 2022. The company also aims to enhance its Family of Apps, which generated $133 billion in total revenue, indicating a strong emphasis on its core social media platforms (1). In contrast, Google's strategy, while not detailed in the provided documents, typically emphasizes diversifying its revenue streams beyond advertising, including cloud services and hardware. Google has been investing heavily in artificial intelligence and machine learning technologies to enhance its product offerings and maintain its competitive edge in the tech industry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As of 2023, Meta's strategy towards AI focuses on integrating advanced AI technologies into its social media platforms and enhancing user experiences through personalized content and improved moderation tools. Meta has been investing heavily in generative AI, particularly in areas like natural language processing and computer vision, to create more engaging and interactive experiences across its apps, such as Facebook and Instagram. The company is also exploring AI for augmented and virtual reality applications, aligning with its vision of the metaverse.
-In contrast, Google's AI strategy is more centered on leveraging AI to enhance its core products, such as search, advertising, and cloud services. Google has been integrating AI into its search algorithms to provide more relevant results and has developed tools like Bard, its conversational AI, to compete with other AI-driven platforms. Additionally, Google is focused on AI ethics and responsible AI development, emphasizing transparency and user trust.
-The key differences between Meta and Google's AI strategies lie in their primary objectives and applications. Meta is more focused on social interaction and immersive experiences, while Google is concentrating on improving its existing services and maintaining its dominance in search and advertising through AI advancements.
-</t>
-  </si>
-  <si>
-    <t>What is Broadcom general sources of revenue and how has it changed since 2022?</t>
-  </si>
-  <si>
-    <t>Broadcom's general sources of revenue are primarily divided into two categories: Products and Subscriptions and Services. Products: This category includes a wide range of semiconductor products and solutions. For the fiscal year ending October 30, 2022, total net revenue from products was 26 , 277 m i l l i o n ∗ ∗ , w h i c h r e p r e s e n t e d a s i g n i f i c a n t i n c r e a s e f r o m ∗ ∗ 26,277million∗∗,whichrepresentedasignificantincreasefrom∗∗20,886 million in the previous year (2021)【1】. Subscriptions and Services: This category mainly consists of software licenses and related services. For the same fiscal year, total net revenue from subscriptions and services was 6 , 926 m i l l i o n ∗ ∗ , u p f r o m ∗ ∗ 6,926million∗∗,upfrom∗∗6,564 million in 2021【1】. Changes Since 2022 Since 2022, Broadcom has seen a notable increase in total net revenue. For the 12 months ended October 30, 2022, the total net revenue was 33 , 203 m i l l i o n ∗ ∗ , c o m p a r e d t o ∗ ∗ 33,203million∗∗,comparedto∗∗27,450 million for the 12 months ended October 31, 2021【1】. This represents an increase of approximately 20% year-over-year. In the subsequent quarters of 2023, Broadcom continued to report growth in revenue: For the three months ended January 29, 2023, total net revenue was 8 , 915 m i l l i o n ∗ ∗ , u p f r o m ∗ ∗ 8,915million∗∗,upfrom∗∗7,706 million in the same period of the previous year【2】. For the three months ended April 30, 2023, total net revenue was 8 , 733 m i l l i o n ∗ ∗ , c o m p a r e d t o ∗ ∗ 8,733million∗∗,comparedto∗∗8,103 million in the same period of 2022【3】. Overall, Broadcom's revenue has shown a consistent upward trend since 2022, reflecting strong performance in both product sales and subscription services.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Broadcom's general sources of revenue primarily come from the following segments:
 1. **Semiconductor Solutions**: This is the largest segment, which includes a wide range of products such as networking chips, broadband access, storage, and wireless communication solutions. The demand for these products is driven by trends in data centers, cloud computing, and mobile devices.
 2. **Infrastructure Software**: This segment includes software solutions for enterprise and security applications, which have been increasingly important as businesses focus on digital transformation and cybersecurity.
@@ -423,324 +255,919 @@
 </t>
   </si>
   <si>
-    <t>Answer: Broadcom's general sources of revenue are primarily divided into two categories: Products and Subscriptions and Services. Products: This category includes a variety of semiconductor products and solutions. For the fiscal year ending October 30, 2022, total net revenue from products was 26 , 277 m i l l i o n ∗ ∗ , w h i c h i n c r e a s e d f r o m ∗ ∗ 26,277million∗∗,whichincreasedfrom∗∗20,886 million in the previous year (2021)【1】. Subscriptions and Services: This category mainly consists of software licenses and related services. For the same fiscal year, total net revenue from subscriptions and services was 6 , 926 m i l l i o n ∗ ∗ , u p f r o m ∗ ∗ 6,926million∗∗,upfrom∗∗6,564 million in 2021【1】. Changes Since 2022 Total Net Revenue: For the 12 months ended October 30, 2022, Broadcom reported total net revenue of 33 , 203 m i l l i o n ∗ ∗ , a s i g n i f i c a n t i n c r e a s e f r o m ∗ ∗ 33,203million∗∗,asignificantincreasefrom∗∗27,450 million in 2021【1】. Product Revenue: The revenue from products rose to 26 , 277 m i l l i o n ∗ ∗ i n 2022 f r o m ∗ ∗ 26,277million∗∗in2022from∗∗20,886 million in 2021【1】. Subscription Revenue: Revenue from subscriptions and services also saw an increase, reaching 6 , 926 m i l l i o n ∗ ∗ i n 2022 c o m p a r e d t o ∗ ∗ 6,926million∗∗in2022comparedto∗∗6,564 million in 2021【1】. Overall, Broadcom has experienced growth in both its product and subscription revenue streams since 2022, contributing to a substantial increase in total net revenue.</t>
-  </si>
-  <si>
-    <t>How has Berkshire Hathaway's investment portfolio changed from 2022 to 2023?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-December 31, 2022 - Approximately 75% of the aggregate fair value was concentrated in five companies (American Express Company – $22.4 billion;
+    <t>BRK-B</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>Broadcom</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>Eli Lilly</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Response Rate</t>
+  </si>
+  <si>
+    <t>Mean Absolute Percentage Error</t>
+  </si>
+  <si>
+    <t>High Quality</t>
+  </si>
+  <si>
+    <t>Medium Quality</t>
+  </si>
+  <si>
+    <t>Low Quality</t>
+  </si>
+  <si>
+    <t>Standard LLM</t>
+  </si>
+  <si>
+    <t>Naive RAG</t>
+  </si>
+  <si>
+    <t>Self-RAG</t>
+  </si>
+  <si>
+    <t>$574,785 million</t>
+  </si>
+  <si>
+    <t>In 2024, Meta engaged in share repurchase activities totaling  14.64 billion during the first quarter (January to March) and 20.03 billion during the second half of the year (up to September). Therefore, the total share repurchase activities for 2024 amount to $34.67 billion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.81 billion on share purchase activities during the nine months ended September 30,2024.This amount includes 14.64 billion for the first quarter and $20.95 billion for the second quarter. The total reflects the company's ongoing share repurchase program authorized by its board of directors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Gaming segment, which generated 12,462 million</t>
+  </si>
+  <si>
+    <t>For the year ended January 30, 2022, Nvidia's largest segment by revenue was Gaming, which generated 12 , 462 This was followed by the Data Center segment with 10,613 million in revenue (1, 2).</t>
+  </si>
+  <si>
+    <t>Nvidia's highest revenue segment for the fiscal year ending January 30, 2022, was the Gaming segment, which generated 12,462 million.The second highest was the Data Center segment , with 10,613 million in revenue. Overall, Nvidia reported total revenue of $26,914 million for that fiscal year.</t>
+  </si>
+  <si>
+    <t>$ 39,500 million</t>
+  </si>
+  <si>
+    <t>Google's total expenditure on research and development for the fiscal year ending in 2022 was 39,500 million (or 39.5 billion) (Alphabet Inc. 10-K report for Dec. 31, 2022).</t>
+  </si>
+  <si>
+    <t>Baqsimi - 633.9 million</t>
+  </si>
+  <si>
+    <t>The drug with the most significant year-on-year revenue decline for Eli Lilly in 2024 was Baqsimi, which experienced a revenue decrease of  600 million .In the six months ended June 30 , 2023 , Baqsimi generated 629.3 million, while in the same period in 2024, it reported a revenue of 11.5million (Eli Lilly 10-Q report for Jun. 30, 2024).</t>
+  </si>
+  <si>
+    <t>The Commitments and Contingencies section of Tesla's Q3 2022 10-Q report includes the following key points and details:
+Number of Lawsuits Filed: There were 2 lawsuits filed in the 4 months ended and 7 lawsuits filed in the 29 months ended.
+Loss Contingency for Stockholder Class Actions: There were 9 purported stockholder class actions filed.
+Consolidated Actions: There were 2 consolidated actions noted.
+Pending Resolutions: There were 7 pending resolutions related to these lawsuits.
+Total Damages Awarded for Alleged Race Discrimination: The report indicates total damages awarded of $15 million related to alleged race discrimination.
+Litigation Related to Alleged Race Discrimination: The report mentions a specific amount of $3,175,000 related to this litigation.
+Number of Tesla Stockholders: The report notes that there are 2 Tesla stockholders involved in the litigation.
+Received Payment from Litigation: Tesla received a payment of $43 million from litigation.
+These details highlight the ongoing legal challenges Tesla faces, particularly regarding stockholder class actions and allegations of discrimination (Tesla, Inc. 10-Q report for Sep. 30, 2022).</t>
+  </si>
+  <si>
+    <t>Number of Lawsuits Filed: 2 filed in the 4 months ended and 7 lawsuits filed in the 29 months ended.
+Loss Contingency for Stockholder Class Actions: 9 purported stockholder class actions filed.
+Consolidated Actions: There were 2 consolidated actions 1 month ended, 7 29 months ended.
+Pending Resolutions: There were 7 pending resolutions .
+Total Damages Awarded for Alleged Race Discrimination:  $15 million 
+Litigation Related to Alleged Race Discrimination:$136.9 Million related to this litigation.
+Number of Tesla Stockholders:  2 Tesla stockholders involved in the litigation.
+Received Payment from Litigation: Tesla received a payment of $43 million from litigation.</t>
+  </si>
+  <si>
+    <t>Points of Failure</t>
+  </si>
+  <si>
+    <t>Comparing two companies with different Financial Year Start-End dates</t>
+  </si>
+  <si>
+    <t>Using relative time frame (last X years)</t>
+  </si>
+  <si>
+    <t>To calculate the total revenue growth rates for Alphabet (GOOG) and Meta (META) from 2021 to 2022, we can use the following formula:
+[ \text{Growth Rate} = \frac{\text{Revenue}{2022} - \text{Revenue}{2021}}{\text{Revenue}_{2021}} \times 100 ]
+Meta (META)
+Revenue 2021: $117,929 million
+Revenue 2022: $116,609 million
+Calculating the growth rate: [ \text{Growth Rate}_{META} = \frac{116609 - 117929}{117929} \times 100 = \frac{-1320}{117929} \times 100 \approx -1.12% ]
+Alphabet (GOOG)
+Revenue 2021: $257,637 million
+Revenue 2022: $282,836 million
+Calculating the growth rate: [ \text{Growth Rate}_{GOOG} = \frac{282836 - 257637}{257637} \times 100 = \frac{25299}{257637} \times 100 \approx 9.81% ]
+Comparison
+Meta (META) Growth Rate: approximately -1.12%
+Alphabet (GOOG) Growth Rate: approximately 9.81%
+In summary, Meta experienced a decline in revenue from 2021 to 2022, while Alphabet saw a significant increase in revenue during the same period. Thus, Alphabet's growth rate is substantially higher than Meta's, which is negative.</t>
+  </si>
+  <si>
+    <t>Calculate and compare the total revenue growth rates for Alphabet (GOOG) and Meta (META) from 2021 to 2022, based on 10-K</t>
+  </si>
+  <si>
+    <t>Failing to use the companies current name (Alphabet vs Google) and/or not including ticker symbols</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>naïve rag sums up quaterly values, which are cumulative</t>
+  </si>
+  <si>
+    <t>both RAGs get confused by US and international revenues</t>
+  </si>
+  <si>
+    <t>if not specific, it confuses Q3 2022 with 2020 10k</t>
+  </si>
+  <si>
+    <t>easy for all</t>
+  </si>
+  <si>
+    <t>low top K results in one stock being left out of the retrieved docs</t>
+  </si>
+  <si>
+    <t>What were the gross profit margins for Eli Lilly (LLY) and Tesla (TSLA) in 2022, and how do they compare?
+Answer:
+The gross profit margins for Tesla (TSLA) and Eli Lilly (LLY) in 2022 are as follows:
+Tesla (TSLA)
+Gross Profit: $20,853 million
+Total Revenues: $81,462 million
+Gross Profit Margin: [ \text{Gross Profit Margin} = \frac{\text{Gross Profit}}{\text{Total Revenues}} \times 100 = \frac{20,853}{81,462} \times 100 \approx 25.6% ]
+Eli Lilly (LLY)
+Gross Profit: $14,307.1 million (calculated from the net income and costs)
+Total Revenues: $21,239.6 million
+Gross Profit Margin: [ \text{Gross Profit Margin} = \frac{\text{Gross Profit}}{\text{Total Revenues}} \times 100 = \frac{14,307.1}{21,239.6} \times 100 \approx 67.4% ]
+Comparison
+Tesla's Gross Profit Margin: Approximately 25.6%
+Eli Lilly's Gross Profit Margin: Approximately 67.4%
+In summary, Eli Lilly's gross profit margin is significantly higher than Tesla's in 2022, indicating that Eli Lilly retains a larger percentage of revenue as gross profit compared to Tesla.</t>
+  </si>
+  <si>
+    <t>Google Cloud - 19,206 in 2021 to  26,280 in 2022 | AWS -  62,202 to 80,096 | Microsoft (ended june 2022) - 69,100 to 91,4000 (all in $ millions)</t>
+  </si>
+  <si>
+    <t>Compare Broadcom (AVGO) and Nvidia's (NVDA) segment mix in 2022</t>
+  </si>
+  <si>
+    <t>Insider Trading Activities for Meta (META) in 2024
+Peggy Alford
+Title: Member of the Board of Directors
+Adoption Date: April 26, 2024
+Material Terms: Trading plan for the sale of up to $1.5 million worth of Class A common stock.
+Expiration Date: January 27, 2025
+Christopher K. Cox
+Title: Chief Product Officer
+Adoption Date: April 26, 2024
+Material Terms: Trading plan for the sale of 30,000 shares of Class A common stock.
+Expiration Date: July 25, 2025
+Nick Clegg
+Title: President, Global Affairs
+Adoption Date: May 12, 2024
+Material Terms: Trading plan for the sale of 7,528 shares of Class A common stock and all net shares received from equity awards.
+Expiration Date: May 16, 2025
+Aaron Anderson
+Title: Chief Accounting Officer
+Adoption Date: February 12, 2024
+Material Terms: Trading plan for the sale of up to 2,935 shares.
+Expiration Date: November 18, 2025
+Mark Zuckerberg
+Title: Founder, Chairman, and CEO
+Adoption Date: February 21, 2024
+Material Terms: Trading plan for the sale of up to 958,000 shares of Class A common stock.
+Expiration Date: November 21, 2024
+Sheryl Sandberg
+Title: Member of the Board of Directors
+Adoption Date: February 28, 2024
+Material Terms: Trading plan for the sale of 973,846 shares of Class A common stock.
+Expiration Date: November 22, 2024
+Jennifer Newstead
+Title: Chief Legal Officer
+Adoption Date: November 30, 2023
+Material Terms: Trading plan for the sale of 10,968 shares and all shares received from equity awards.
+Expiration Date: May 13, 2025
+Mark Zuckerberg (Additional Plan)
+Adoption Date: August 9, 2024
+Material Terms: Trading plan for the sale of up to 518,004 shares of Class A common stock and 1,704,522 shares of Class B common stock.
+Expiration Date: May 23, 2025
+Javier Olivan
+Title: Chief Operating Officer
+Adoption Date: August 17, 2024
+Material Terms: Trading plan for the sale of 75.14% of net shares received from equity awards.
+Expiration Date: February 13, 2026
+Insider Trading Activities for Alphabet (GOOG) in 2024
+Prabhakar Raghavan
+Title: Senior Vice President
+Adoption Date: May 13, 2024
+Material Terms: Trading plan to sell 96,784 shares of Class C Capital Stock.
+Expiration Date: May 8, 2025
+K. Ram Shriram
+Title: Independent Director
+Adoption Date: May 30, 2024
+Material Terms: Trading plan to sell 144,266 shares of Class A Common Stock.
+Expiration Date: September 3, 2025
+Amie Thuener O'Toole
+Title: Vice President, Corporate Controller and Principal Accounting Officer
+Adoption Date: May 31, 2024
+Material Terms: Trading plan to sell 16,996 shares of Class C Capital Stock and 100% of net shares from the vesting of an additional 24,626 shares.
+Expiration Date: September 10, 2025
+Kent Walker
+Title: President, Global Affairs, Chief Legal Officer and Secretary
+Adoption Date: May 29, 2024
+Material Terms: New trading plan to sell 100% of net shares from the vesting of 355,887 shares of Class C Capital Stock.
+Expiration Date: February 27, 2027
+Frances Arnold
+Title: Board of Directors
+Adoption Date: July 26, 2024
+Material Terms: Trading plan to sell 50% of net shares from the vesting of 3,345 shares of Class C Capital Stock.
+Expiration Date: November 7, 2025
+These activities reflect the various trading plans adopted by key executives and board members of both companies in 2024.</t>
+  </si>
+  <si>
+    <t>META:
+On August 9, 2024, Mark Zuckerberg, our founder, Chairman, and Chief Executive Officer entered into a trading plan that provides for the sale of an aggregate of up to 518,004 shares of our Class A common stock and 1,704,522 shares of our Class B common stock held by entities affiliated with Mr. Zuckerberg. The plan will terminate on May 23, 2025, subject to early termination for certain specified events set forth in the plan.
+On August 17, 2024, Javier Olivan, our Chief Operating Officer, entered into a trading plan that provides for the sale of 75.14% of all of the net shares received during the duration of the plan pursuant to Mr. Olivan's outstanding equity awards and any future equity award grants. The plan will terminate on February 13, 2026, subject to early termination for certain specified events set forth in the plan.
+On April 26, 2024, Peggy Alford, a member of our board of directors, entered into a trading plan that provides for the sale of an aggregate of up to $1.5 million worth of shares of our Class A common stock. The plan will terminate on January 27, 2025, subject to early termination for certain specified events set forth in the plan.
+On April 26, 2024, Christopher K. Cox, our Chief Product Officer, entered into a trading plan that provides for the sale of an aggregate of 30,000 shares of our Class A common stock. The plan will terminate on July 25, 2025, subject to early termination for certain specified events set forth in the plan.
+On May 12, 2024, Nick Clegg, our President, Global Affairs, entered into a trading plan that provides for the sale of an aggregate of 7,528 shares of our Class A common stock and all of the net shares received during the duration of the plan pursuant to Mr. Clegg’s outstanding equity awards and any future equity grants. The plan will terminate on May 16, 2025, subject to early termination for certain specified events set forth in the plan.
+On May 28, 2024, Susan Li, our Chief Financial Officer, terminated her previously reported trading plan adopted on May 13, 2023 (Previous Plan). As of the termination of the Previous Plan, 75,311 shares of our Class A common stock had been sold under the plan. The adoption and subsequent termination of the Previous Plan each occurred during an open company trading window and in accordance with the company’s policies. On May 28, 2024, Ms. Li entered into a new trading plan that provides for the sale of an aggregate of 14,376 shares of our Class A common stock and all of the net shares received during the duration of the plan pursuant to Ms. Li and her spouse’s outstanding equity awards and any future equity award grants. The plan will terminate on November 25, 2024, subject to early termination for certain specified events set forth in the plan.
+Google:
+Prabhakar Raghavan, Senior Vice President, Knowledge and Information, Google, adopted a trading plan on May 13, 2024 (with the first trade under the plan scheduled for August 15, 2024). The trading plan will be effective until May 8, 2025 to sell an aggregate of 96,784 shares of Class C Capital Stock during the plan period.
+K. Ram Shriram, independent director, adopted a trading plan on May 30, 2024 (with the first trade under the plan scheduled for September 3, 2024). The trading plan will be effective until September 3, 2025 to sell an aggregate of 144,266 shares of Class A Common Stock during the plan period.
+Amie Thuener O’Toole, Vice President, Corporate Controller and Principal Accounting Officer, adopted a trading plan on May 31, 2024 (with the first trade under the plan scheduled for September 10, 2024). The trading plan will be effective until September 10, 2025 to sell an aggregate of (i) 16,996 shares of Class C Capital Stock plus (ii) 100% of the (net) shares resulting from the vesting of an additional 24,626 (gross) shares of Class C Capital Stock during the plan period (net shares are net of tax withholding).
+Kent Walker, President, Global Affairs, Chief Legal Officer and Secretary, effected a trading plan modification by terminating a trading plan on May 29, 2024 that was originally adopted on May 31, 2023, and adopting a new trading plan on May 29, 2024 (with the first trade under the new plan scheduled for September 3, 2024). The new trading plan will be effective until February 27, 2027 to sell 100% of the (net) shares resulting from the vesting of 355,887 (gross) shares of Class C Capital Stock during the plan period (net shares are net of tax withholding).*</t>
+  </si>
+  <si>
+    <t>Two sources: Semiconductors and Instrastructure Software
+FY 2022: 32.2 billion net revenue, 25.8 and 7.4 respectively
+FY 2023 (3 6 9 months ended): 8733, 17648, 26524 billion usd net revenue, 6941,13915, 20856 from semiconductors, 1925, 3733, 5668 from infra soft
+FY 2024 (3 6 9 months ended): 12487, 24448,37520  billion usd net revenue, 7202,14592, 21866 from semiconductors, 5798, 9856, 15654 from infra soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 31, 2022 - Approximately 75% of the aggregate fair value was concentrated in five companies (American Express Company – $22.4 billion;
 Apple Inc. – $119.0 billion; Bank of America Corporation – $34.2 billion; The Coca-Cola Company – $25.4 billion and Chevron
 Corporation – $30.0 billion)
-Banks, insurance and finance $ 25,893 $ 43,663 $ 69,556
-Consumer products 40,508 112,384 152,892
-Commercial, industrial and other 65,209 21,136 86,345
 December 31, 2023 - Approximately 79% of the aggregate fair value was concentrated in five companies (American Express Company – $28.4 billion;
 Apple Inc. – $174.3 billion; Bank of America Corporation – $34.8 billion; The Coca-Cola Company – $23.6 billion and Chevron
 Corporation – $18.8 billion).
-Banks, insurance and finance $ 27,136 $ 51,176 $ 78,312
-Consumer products 34,248 166,895 201,143
-Commercial, industrial and other 48,032 26,355 74,387
 </t>
   </si>
   <si>
-    <t>nswer: Berkshire Hathaway's investment portfolio has seen notable changes from December 31, 2023, to March 31, 2024. Here are the key changes: Cost Basis: The cost basis of investments in equity securities decreased from 109 , 416 m i l l i o n ∗ ∗ t o ∗ ∗ 109,416million∗∗to∗∗103,753 million. Net Unrealized Gains: Net unrealized gains also decreased from 244 , 426 m i l l i o n ∗ ∗ t o ∗ ∗ 244,426million∗∗to∗∗232,111 million. Fair Value: The fair value of investments in equity securities declined from 353 , 842 m i l l i o n ∗ ∗ t o ∗ ∗ 353,842million∗∗to∗∗335,864 million. Sector Breakdown: Banks, Insurance, and Finance: Fair value increased from 78 , 312 m i l l i o n ∗ ∗ t o ∗ ∗ 78,312million∗∗to∗∗92,812 million. Consumer Products: Fair value decreased from 201 , 143 m i l l i o n ∗ ∗ t o ∗ ∗ 201,143million∗∗to∗∗163,578 million. Commercial, Industrial, and Other: Fair value slightly decreased from 74 , 387 m i l l i o n ∗ ∗ t o ∗ ∗ 74,387million∗∗to∗∗79,474 million. Overall, while there was a decrease in the overall fair value and net unrealized gains, the fair value of investments in the banking sector increased significantly, indicating a shift in the portfolio's focus or performance in that area (1, 2).</t>
-  </si>
-  <si>
-    <t>BRK-B</t>
-  </si>
-  <si>
-    <t>Berkshire Hathaway</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>Broadcom</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>Tesla</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>Eli Lilly</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>GOOG</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>Nvidia</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Quantitative</t>
-  </si>
-  <si>
-    <t>Qualitative</t>
-  </si>
-  <si>
-    <t>Response Rate</t>
-  </si>
-  <si>
-    <t>Mean Absolute Percentage Error</t>
-  </si>
-  <si>
-    <t>High Quality</t>
-  </si>
-  <si>
-    <t>Medium Quality</t>
-  </si>
-  <si>
-    <t>Low Quality</t>
-  </si>
-  <si>
-    <t>Standard LLM</t>
-  </si>
-  <si>
-    <t>Naive RAG</t>
-  </si>
-  <si>
-    <t>Self-RAG</t>
-  </si>
-  <si>
-    <t>What was Apple's cash flow from operating activities as reported in Q3 2022?</t>
-  </si>
-  <si>
-    <t>$98,024 million.</t>
-  </si>
-  <si>
-    <t>No answer</t>
-  </si>
-  <si>
-    <t>What is the percentage change in Apple's total net sales compared to the previous year? Consider both 3 months and 9 months values.</t>
-  </si>
-  <si>
-    <t>82,959 vs 81,434 (1.87%). 304,182 vs 282,457 (7.69%)</t>
-  </si>
-  <si>
-    <t>What is the effective tax rate reported by Apple in the Q3 2022 nine month reporting period?</t>
-  </si>
-  <si>
-    <t>No Answer</t>
-  </si>
-  <si>
-    <t>What was the change in Apple's Net Income for the nine-month ended period?</t>
-  </si>
-  <si>
-    <t>$ 79,082 vs $ 74,129 (4953 million increase, 9m ended)</t>
-  </si>
-  <si>
-    <t>What was the total revenue generated from Apple's iPhone sales for Q3, 2022?</t>
-  </si>
-  <si>
-    <t>$40,665 million</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>What percentage of Apple's total revenue did the Wearables, Home and Accessories segment contribute in Q3 2022?</t>
-  </si>
-  <si>
-    <t>8,084/82,959 = 9.74%</t>
-  </si>
-  <si>
-    <t>What are the net proceeds from issuance of term debt for Q3, 2022?</t>
-  </si>
-  <si>
-    <t>0 (None)</t>
-  </si>
-  <si>
-    <t>What is the change in  Diluted earnings per share from Q3 2021 to Q3 2022 nine month period?</t>
-  </si>
-  <si>
-    <t>$4.82 (Q3 2022) - $4.38 (Q3 2021) = $0.44</t>
-  </si>
-  <si>
-    <t>What is the value of Foreign exchange contracts not designated as accounting hedges in Q3 2022?</t>
-  </si>
-  <si>
-    <t>$84,506 million</t>
-  </si>
-  <si>
-    <t>Which reportable geographic segment generated highest net sales for Apple in Q3 2022, and what is the dollar amount?</t>
-  </si>
-  <si>
-    <t>Americas, $37,472 million</t>
-  </si>
-  <si>
-    <t>What are the major factors contributing to the change in Apple's gross margins year-over-year from Q3 2021 to Q3 2022? List the reasons seperately for Products and Services.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year-over-year Products gross margin increased during the first nine months of 2022 due primarily to a different Products mix and higher Products volume, partially offset by the weakness in foreign currencies relative to the U.S. dollar.    Services gross margin increased during the first nine months of 2022 compared to the same periods in 2021 due primarily to higher Services net sales, partially offset by the weakness in foreign currencies relative to the U.S. dollar. </t>
-  </si>
-  <si>
-    <t>Has there been any significant change in Apple's operating expenses? If so, what are the key drivers for this change?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which category has Apple seen the largest percentage decrease in Net Sales? </t>
-  </si>
-  <si>
-    <t>Mac, 10% decrease</t>
-  </si>
-  <si>
-    <t>What is the impact of foreign exchange rates on Apple's financial performance?</t>
-  </si>
-  <si>
-    <t>Weakness in foreign currencies relative to the U.S. dollar had an unfavorable impact on the Company's financial performance across regions.</t>
-  </si>
-  <si>
-    <t>What legal proceedings or contingencies were disclosed by Apple in Q3 2022 and how might they potentially impact Apple?</t>
-  </si>
-  <si>
-    <t>1. Epic Games Lawsuit: Epic Games, Inc. filed a lawsuit against Apple Inc. in the U.S. District Court for the Northern District of California, alleging violations of federal and state antitrust laws and California's unfair competition law based on Apple's operation of its App Store. The District Court ruled in favor of Apple on most counts but found that certain provisions of Apple's App Store Review Guidelines violated California's unfair competition law and issued an injunction. The case was appealed to the U.S. Court of Appeals for the Ninth Circuit, which affirmed the District Court's ruling. Further appeals and requests for review are mentioned, including a potential appeal to the U.S. Supreme Court and the Circuit Court's stay of the injunction pending such appeal. - The Epic Games lawsuit could lead to changes in Apple's App Store policies and practices, particularly regarding the prohibition of developers from including external links to purchasing mechanisms other than Apple in-app purchasing. If the injunction takes effect, it could impact Apple's App Store revenue and operating model.</t>
-  </si>
-  <si>
-    <t>Has Apple engaged in any significant share repurchase activities in the reported quarters and what are the financial implications of these activities?</t>
-  </si>
-  <si>
-    <t>Yes, Apple has engaged in significant share repurchase activities in the reported quarters. The financial implications of these activities include a reduction in the number of shares outstanding, which can lead to an increase in earnings per share (EPS) and potentially enhance shareholder value. The repurchase activities are as follows:
-- In the quarter ended June 25, 2022, Apple repurchased 408 million shares of its common stock for $65.0 billion under a share repurchase program authorized by the Board of Directors.</t>
-  </si>
-  <si>
-    <t>What was the primary driver behind the change in Apple's net income from Q3 2021 to Q3 2022?</t>
-  </si>
-  <si>
-    <t>Increase in Net Sales, both products and services</t>
-  </si>
-  <si>
-    <t>What new products did Apple announce in Q3 2022?</t>
-  </si>
-  <si>
-    <t>At the end of the third quarter of 2022, the Company introduced an all-new MacBook Air and an updated 13-inch MacBook Pro , both powered by the new Apple M2 chip. The Company also announced iOS 16, macOS Ventura, iPadOS 16 and watchOS 9, updates to its operating systems that are expected to be available in the fall of 2022.</t>
-  </si>
-  <si>
-    <t>What significant accounting policy changes, if any, did Apple disclose in Q3 2022?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Apple's Q3 2022 Tax Rate higher or lower than the statutory federal income tax rate? </t>
-  </si>
-  <si>
-    <t>Lower</t>
+    <t xml:space="preserve">Berkshire Hathaway's investments in its top five companies from 2022 to 2023 show the following changes:
+American Express Company
+2022 Value: $22.4 billion
+2023 Value: $28.4 billion
+Net Difference: +$6.0 billion
+Apple Inc.
+2022 Value: $119.0 billion
+2023 Value: $174.3 billion
+Net Difference: +$55.3 billion
+Bank of America Corporation
+2022 Value: $34.2 billion
+2023 Value: $34.8 billion
+Net Difference: +$0.6 billion
+The Coca-Cola Company
+2022 Value: $25.4 billion
+2023 Value: $23.6 billion
+Net Difference: -$1.8 billion
+Chevron Corporation
+2022 Value: $30.0 billion
+2023 Value: $18.8 billion
+Net Difference: -$11.2 billion
+Summary of Changes:
+American Express: +$6.0 billion
+Apple: +$55.3 billion
+Bank of America: +$0.6 billion
+Coca-Cola: -$1.8 billion
+Chevron: -$11.2 billion
+Overall, Berkshire Hathaway saw significant increases in its investments in American Express and Apple, while it experienced declines in its investments in The Coca-Cola Company and Chevron from 2022 to 2023.
+</t>
+  </si>
+  <si>
+    <t>How much did Alphabet (GOOG) spend on research and development for year ended 2022?</t>
+  </si>
+  <si>
+    <t>What is the total of the share repurchase activities Meta (META) engaged in 2024</t>
+  </si>
+  <si>
+    <t>What was Nvidia (NVDA) largest segment by revenue for the year ended January 30, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which drug has Eli Lilly (LLY) seen the largest decrease in Total revenue year on year in 2024? How much was the decrease? </t>
+  </si>
+  <si>
+    <t>Summarize the Commitments and Contingencies section of Tesla's (TSLA) Q3 2022 10Q report.</t>
+  </si>
+  <si>
+    <t>What legal proceedings or contingencies were disclosed by Amazon(AMZN)  in Q3 2022 and how might they potentially impact Amazon ?</t>
+  </si>
+  <si>
+    <t>Has there been any significant change in Apple's (AAPL) operating expenses in Q3 2022? If so, what are the key drivers for this change?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Microsoft's (MSFT) Q3 2022 Tax Rate higher or lower than the statutory federal income tax rate? </t>
+  </si>
+  <si>
+    <t>What is the change in Diluted earnings per share from Q3 2022 to Q3 2023 nine month period for Berkshire Hathaway (BRK-B)?</t>
+  </si>
+  <si>
+    <t>How has stock based compensation increased from Tesla (TSLA) over the past three years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare the gross profit margin of Eli Lilly (LLY) and Tesla (TSLA) in 2022. </t>
+  </si>
+  <si>
+    <t>What percentage of Apple's (AAPL) total revenue did the Wearables, Home and Accessories segment contribute in the last three years (2022-2024)?</t>
+  </si>
+  <si>
+    <t>Compare the performance of Microsoft (MSFT), Alphabet (GOOG) and Amazon's (AMZN) cloud computing services in 2023</t>
+  </si>
+  <si>
+    <t>Compare the insider trading activities reported by Meta (META) and Alphabet (GOOG) as of 2024?</t>
+  </si>
+  <si>
+    <t>What is Broadcom (AVGO) general sources of revenue and how has it changed since 2022?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The specific legal proceedings against Amazon detailed in the Q3 2022 10-Q report include:
+Kove IO, Inc.:
+Kove IO, Inc. filed a complaint alleging that Amazon S3 and DynamoDB infringe on several U.S. patents. The complaint seeks unspecified damages, enhanced damages, attorneys’ fees, costs, interest, and injunctive relief. In July 2023, Kove alleged that Amazon Web Services could be subject to damages ranging from  517 million to 1.03 billion in the event of a finding of liability.
+Dialect, LLC:
+Dialect, LLC filed a complaint alleging that Amazon's Alexa-enabled products and services infringe on multiple U.S. patents related to natural language processing. The complaint seeks unspecified damages, enhanced damages, attorneys’ fees, costs, interest, and injunctive relief.
+Eolas Technologies, Inc.:
+Eolas Technologies has claims against Amazon, with minimum damages sought of  130 million and maximum damages of 250 million.
+Broadband iTV:
+Claims against Amazon include minimum damages sought of 166millionandmaximumdamagesof986 million.
+These proceedings reflect ongoing disputes involving patent infringement and other legal claims against Amazon (source: Amazon.com, Inc. 10-Q report for Sep. 30, 2022).
+</t>
+  </si>
+  <si>
+    <t>Yes, there was a significant change in Apple's operating expenses in Q3 2022. The total operating expenses increased to  12,809 millionf rom 11,129 million in the same quarter of the previous year, driven primarily by higher research and development costs, which rose to  6,797 million from 5,717 million. Additionally, selling, general, and administrative expenses also increased, contributing to the overall rise in operating expenses</t>
+  </si>
+  <si>
+    <t>The diluted earnings per share for Berkshire Hathaway (BRK-B) for the nine-month period ended September 30, 2023, is 26.95, compared to−18.51 for the same period in 2022. This represents a change of $45.46.</t>
+  </si>
+  <si>
+    <t>Tesla's stock-based compensation has fluctuated over the past three years, with expenses reported as follows:   2.12 billion in 2021, 1.56 billion in 2022, and   1.81 billion in 2023.The total stock−based compensation expense for the first nine months of2 023 was 1.33 billion, compared to $1.14 billion for the same period in 2022. Overall, there was a decrease from 2021 to 2022, followed by an increase in 2023.</t>
+  </si>
+  <si>
+    <t>In the last three years, the Wearables, Home and Accessories segment contributed the following percentages to Apple's total revenue: 10.5% in 2022, 10.4% in 2023, and 9.5% in 2024. The segment's net sales were   41,241 million in 2022,39,845 million in 2023, and   37,005 million in 2024,with total revenues o f394,328 million,   383,285 million, and 391,035 million respectively.</t>
+  </si>
+  <si>
+    <t>Eli Lilly (LLY) has seen the largest decrease in total revenue year on year in 2024 from the drug Alimta®. The revenue for Alimta® in 2023 was 
+72.9million while in 2022 it was 543.7 million, resulting in a decrease of 470.8million</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Commitments and Contingencies section of Tesla's Q3 2022 10-Q report outlines several key legal and financial obligations:
+Litigation: Tesla is facing multiple stockholder class action lawsuits, with a total of 9 purported class actions filed. There are 2 lawsuits currently filed, and 7 consolidated actions are noted. Additionally, there are 7 pending resolutions related to these cases.
+Damages: The total damages sought in these lawsuits include approximately 3,175,000 relatedtoallegedracediscrimination ,withatotalof 15,000,000 awarded in previous cases concerning similar allegations.
+Stockholder Information: The report mentions 2 Tesla stockholders involved in the litigation.
+Lease Obligations: Tesla has operating lease arrangements with initial terms of 50 years and 10 years for different properties.
+Additional Claims: There is a claim for additional shares valued at $162,000,000.
+This section highlights Tesla's ongoing legal challenges and financial commitments, reflecting the company's exposure to potential liabilities and the impact of litigation on its operations (sources: 10-Q report for Sep. 30, 2022).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Q3 2022, Amazon disclosed several legal proceedings and contingencies that could potentially impact the company. Key points include:
+Kove IO, Inc. Litigation: Kove filed a complaint against Amazon Web Services (AWS) alleging patent infringement related to Amazon S3 and DynamoDB. The case was stayed in March 2022 but was lifted in November 2022. By July 2023, Kove claimed that damages could range from 
+517millionto
+517millionto1.03 billion if Amazon were found liable. Amazon disputes these allegations and intends to defend itself vigorously (source: 10-Q report for Sep. 30, 2022).
+Dialect, LLC Complaint: Another complaint was filed by Dialect against Amazon, alleging that various Alexa-enabled products infringe multiple patents. The damages sought are unspecified, and Amazon also disputes these claims (source: 10-Q report for Sep. 30, 2022).
+Tax Controversies: Amazon is involved in disputes regarding non-income taxes, which include issues related to the taxability of products and services, and compliance with reporting obligations. The outcomes of these disputes are uncertain and could materially affect Amazon's financial results (source: 10-Q report for Sep. 30, 2022).
+General Legal Proceedings: Amazon is regularly subject to various claims and litigation, including those related to intellectual property, taxes, labor, competition, and consumer protection. The unpredictability of these legal matters could have a material impact on Amazon's operating results and cash flows (source: 10-Q report for Sep. 30, 2022).
+Overall, the legal proceedings and contingencies disclosed by Amazon in Q3 2022 highlight significant potential financial liabilities and operational risks that could affect the company's performance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To calculate and compare the total revenue growth rates for Alphabet (GOOG) and Meta (META) from 2021 to 2022, we can use the following formula for growth rate:
+[ \text{Growth Rate} = \frac{\text{Revenue in 2022} - \text{Revenue in 2021}}{\text{Revenue in 2021}} \times 100 ]
+Alphabet (GOOG)
+Revenue in 2021: $257,637 million
+Revenue in 2022: $282,836 million
+Calculating the growth rate: [ \text{Growth Rate} = \frac{282,836 - 257,637}{257,637} \times 100 = \frac{25,199}{257,637} \times 100 \approx 9.78% ]
+Meta (META)
+Revenue in 2021: $117,929 million
+Revenue in 2022: $116,609 million
+Calculating the growth rate: [ \text{Growth Rate} = \frac{116,609 - 117,929}{117,929} \times 100 = \frac{-1,320}{117,929} \times 100 \approx -1.12% ]
+Comparison
+Alphabet (GOOG) Growth Rate: 9.78%
+Meta (META) Growth Rate: -1.12%
+In summary, Alphabet experienced a revenue growth of approximately 9.78% from 2021 to 2022, while Meta saw a decline in revenue of approximately -1.12% during the same period.
+Citations:
+Alphabet revenue data from 10-K report for Dec. 31, 2022 (source 1).
+Meta revenue data from 10-K report for Dec. 31, 2022 (source 2).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022, the gross profit margin for Eli Lilly (LLY) and Tesla (TSLA) can be calculated as follows:
+Eli Lilly (LLY):
+Revenue: $28,541.4 million
+Cost of Sales: $6,629.8 million
+Gross Profit: Revenue - Cost of Sales = 
+28,541.4million−
+28,541.4million−6,629.8 million = $21,911.6 million
+Gross Profit Margin: (Gross Profit / Revenue) * 100 = (
+21,911.6million/
+21,911.6million/28,541.4 million) * 100 ≈ 76.8%
+Tesla (TSLA):
+Revenue: $81,462 million
+Gross Profit: $20,853 million
+Gross Profit Margin: (Gross Profit / Revenue) * 100 = (
+20,853million/
+20,853million/81,462 million) * 100 ≈ 25.6%
+Comparison:
+Eli Lilly (LLY) Gross Profit Margin: 76.8%
+Tesla (TSLA) Gross Profit Margin: 25.6%
+Thus, Eli Lilly had a significantly higher gross profit margin compared to Tesla in 2022.
+Citations:
+Eli Lilly 10-K report for Dec. 31, 2022.
+Tesla 10-K report for Dec. 31, 2022.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To determine the percentage contribution of the Wearables, Home and Accessories segment to Apple's total revenue for the years 2022, 2023, and 2024, we can use the following data from the documents:
+2022:
+Total Revenue: $394,328 million
+Wearables, Home and Accessories Revenue: $41,241 million
+Percentage Contribution: (41,241 / 394,328) * 100 = 10.45%
+2023:
+Total Revenue: $383,285 million
+Wearables, Home and Accessories Revenue: $39,845 million
+Percentage Contribution: (39,845 / 383,285) * 100 = 10.39%
+2024:
+Total Revenue: $391,035 million
+Wearables, Home and Accessories Revenue: $37,005 million
+Percentage Contribution: (37,005 / 391,035) * 100 = 9.46%
+Summary of Contributions:
+2022: 10.45%
+2023: 10.39%
+2024: 9.46%
+These calculations show that the Wearables, Home and Accessories segment contributed approximately 10.45% of total revenue in 2022, 10.39% in 2023, and 9.46% in 2024 (1, 2, 3).
+</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>GPT-4o-mini</t>
+  </si>
+  <si>
+    <t>Top K</t>
+  </si>
+  <si>
+    <t>10-15 for naïve, and 25-50 for self</t>
+  </si>
+  <si>
+    <t>Tables with poor formatting in vector DB (also causes poor formatting of responses)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of 2024, the insider trading activities reported by Meta (META) and Alphabet (GOOG) show notable differences in the number of shares involved and the individuals participating in these arrangements.
+Meta (META)
+Mark Zuckerberg:
+Date: August 9, 2024
+Shares: Up to 518,004 shares of Class A and 1,704,522 shares of Class B.
+Plan Duration: Until May 23, 2025.
+Sheryl Sandberg:
+Date: February 28, 2024
+Shares: Up to 973,846 shares of Class A.
+Plan Duration: Until November 22, 2024.
+Aaron Anderson:
+Date: February 12, 2024
+Shares: Up to 2,935 shares.
+Plan Duration: Until November 18, 2025.
+Nick Clegg:
+Date: May 12, 2024
+Shares: Up to 7,528 shares.
+Plan Duration: Until May 16, 2025.
+Peggy Alford:
+Date: April 26, 2024
+Shares: Up to $1.5 million worth of shares.
+Plan Duration: Until January 27, 2025.
+Alphabet (GOOG)
+Prabhakar Raghavan:
+Date: May 13, 2024
+Shares: Up to 96,784 shares of Class C.
+Plan Duration: Until May 8, 2025.
+K. Ram Shriram:
+Date: May 30, 2024
+Shares: Up to 144,266 shares of Class A.
+Plan Duration: Until September 3, 2025.
+Amie Thuener O'Toole:
+Date: May 31, 2024
+Shares: 16,996 shares of Class C and 24,626 shares from future grants.
+Plan Duration: Until September 10, 2025.
+Kent Walker:
+Date: May 29, 2024
+Shares: Up to 355,887 shares of Class C.
+Plan Duration: Until February 27, 2027.
+Frances Arnold:
+Date: July 26, 2024
+Shares: 50% of the net shares from 3,345 shares of Class C.
+Plan Duration: Until November 7, 2025.
+Comparison Summary
+Volume of Shares: Meta's plans involve significantly larger volumes of shares, particularly with Zuckerberg's plan involving over 2 million shares, compared to Alphabet's largest plan involving 355,887 shares.
+Diversity of Participants: Both companies have a range of executives and board members involved, but Meta's plans include more high-profile figures like Zuckerberg and Sandberg.
+Plan Durations: The durations of the plans vary, with some extending into 2025 and beyond for both companies.
+This comparison highlights the active insider trading strategies employed by both companies, with Meta showing a more aggressive approach in terms of share volume.
+</t>
+  </si>
+  <si>
+    <t>For the year ended 2022, Alphabet Inc. (GOOG) reported spending approximately $39.5 billion on research and development (R&amp;D). This figure reflects the company's ongoing commitment to innovation and development across its various business segments.</t>
+  </si>
+  <si>
+    <t>In Tesla's Q3 2022 10-Q report, the Commitments and Contingencies section outlines various contractual obligations and potential liabilities the company faces. Key points typically include:
+1. **Commitments**: Tesla may have ongoing commitments related to capital expenditures, supply agreements, and other contractual obligations that support its operations and expansion plans. This could involve investments in manufacturing facilities, technology, and partnerships.
+2. **Contingencies**: The report likely discusses legal proceedings or regulatory matters that could impact Tesla. This includes any lawsuits, claims, or investigations that the company is involved in, along with potential financial implications.
+3. **Risk Factors**: The section may highlight risks associated with these commitments and contingencies, including market conditions, regulatory changes, and operational challenges that could affect Tesla's financial performance.
+For the most accurate and detailed information, it is advisable to refer directly to the Q3 2022 10-Q report.</t>
+  </si>
+  <si>
+    <t>In Q3 2022, Amazon disclosed several legal proceedings and contingencies that could potentially impact the company. While I don't have access to specific documents or disclosures, I can summarize the types of legal issues that companies like Amazon typically face and their potential implications.
+1. **Antitrust Investigations**: Amazon has faced scrutiny from regulators in various jurisdictions regarding its market practices. Ongoing antitrust investigations could lead to fines, changes in business practices, or even structural changes to the company. This could impact Amazon's competitive position and operational flexibility.
+2. **Labor and Employment Issues**: Amazon has been involved in various labor disputes, including allegations of unfair labor practices and challenges related to working conditions. Legal outcomes in these areas could lead to increased operational costs, changes in labor policies, or reputational damage.
+3. **Intellectual Property Disputes**: Amazon often faces lawsuits related to intellectual property, including patent infringement claims. These disputes can result in costly legal fees, potential damages, and could affect Amazon's ability to innovate or launch new products.
+4. **Consumer Protection and Privacy Issues**: Legal challenges related to consumer data privacy and protection can lead to significant fines and changes in how Amazon handles customer data. This could impact customer trust and the company's ability to leverage data for marketing and sales.
+5. **Tax Disputes**: Amazon has faced various tax-related challenges in different jurisdictions. Outcomes of these disputes could result in back taxes owed, penalties, or changes in tax strategies that could affect profitability.
+The potential impacts of these legal proceedings could include financial liabilities, operational changes, and reputational risks. Investors and stakeholders typically monitor such disclosures closely, as they can influence stock performance and the overall business strategy of the company. 
+For the most accurate and detailed information, it would be best to refer to Amazon's official Q3 2022 earnings report or SEC filings, where they would have provided specific details on any legal proceedings and contingencies.</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>Alphabet (GOOG) spent $39.5 billion on research and development for the year ended December 31, 2022 (1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For the years 2022-2024, the product line with the highest growth in Apple's total revenue is Services. The revenue figures across these years are as follows: 2022: $78,129 million 2023: $85,200 million 2024: $96,169 million The growth in revenue for Services from 2022 to 2024 is significant, increasing from 78 ,129 million in 2022t to 96,169 million in 2024, which represents a growth of approximately 23% over the period (78,129 to 96,169) (1, 2, 3). Citations: Apple Inc. (AAPL) 10-K report for Sep. 24, 2022 Apple Inc. (AAPL) 10-K report for Sep. 30, 2023 Apple Inc. (AAPL) 10-K report for Sep. 28, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, there has been a significant change in Apple's operating expenses in Q3 2022 compared to Q3 2021. In Q3 2022, Apple's total operating expenses were  12,809 million   ,which represents an increase from 11,129 million in Q3 2021. This indicates an increase of $1,680 million or approximately 15.1% year-over-year. The key drivers for this change include: Research and Development (R&amp;D): R&amp;D expenses increased from  5,717 million in Q3 2021 to 6,797 million in Q3 2022, reflecting a rise of $1,080 million or about 18.9%. Selling, General and Administrative (SG&amp;A): SG&amp;A expenses also saw an increase, rising from   5,412 million in Q3 2021to 6,012 million in Q3 2022, which is an increase of $600 million or approximately 11.1%. These increases in operating expenses were primarily driven by higher investments in R&amp;D and administrative costs as Apple continued to expand its product offerings and services (1). Sources: Apple Inc. (AAPL) 10-Q report for Jun. 25, 2022.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2023, the performance of cloud computing services for Microsoft (MSFT), Alphabet (GOOG), and Amazon (AMZN) can be summarized based on the available data:
+Alphabet (GOOG)
+Google Cloud Revenue: In 2022, Google Cloud generated 26.28 billion  revenue, up from 19.21 billion in 2021, indicating strong growth. The revenue backlog for Google Cloud as of December 31, 2022, was $64.3 billion, with expectations to recognize approximately half of this backlog as revenue over the next 24 months (1).
+Growth Rate: The growth from   in 2022 represents a significant increase, showcasing Alphabet's commitment to expanding its cloud services.
+Microsoft (MSFT)
+Intelligent Cloud Revenue: For the nine months ended March 31, 2022, Microsoft reported 54.34 billion in revenue from its Intelligent Cloud segment, whichincludesAzure. Thiswasanincreasefrom 42.70 billion in the same period the previous year (2).
+Growth Rate: The Intelligent Cloud segment showed robust growth, reflecting Microsoft's strong position in the cloud market.
+Amazon (AMZN)
+AWS Revenue: Although specific 2023 figures are not provided in the documents, Amazon Web Services (AWS) has historically been a leader in the cloud computing space. In previous years, AWS generated significant revenue, and it is expected to continue its growth trajectory in 2023.
+ .
+Growth Trends: Both Google Cloud and Microsoft’s Intelligent Cloud segments have shown strong growth rates, with Google Cloud's revenue backlog indicating future growth potential.
+In conclusion, while Microsoft appears to lead in total revenue from cloud services, Alphabet is showing strong growth in its cloud segment, and AWS remains a significant player in the market. The exact performance of AWS in 2023 is not detailed in the documents provided.
+Sources:
+Alphabet Inc. 10-K report for Dec. 31, 2022.
+Microsoft Corporation 10-Q report for Mar. 31, 2022.
+</t>
+  </si>
+  <si>
+    <t>Answer: In 2023, Broadcom and Nvidia had distinct product mixes reflecting their strategic focuses and market segments. Broadcom's Product Mix Broadcom's revenue streams are primarily divided into two categories: Products and Subscriptions and Services. For the 12 months ended January 29, 2023, Broadcom reported: Total Net Revenue:   26,277 million from products and 6,926 million from subscriptions and services, indicating a strong emphasis on hardware products. Key Areas: Broadcom's product offerings include semiconductors for networking, broadband, enterprise storage, and wireless communications, which are critical for infrastructure and connectivity solutions. 
+Nvidia's Product Mix Nvidia's product mix is more diversified across several segments, with a significant focus on Data Center and Gaming. For the 12 months ended January 29, 2023, Nvidia reported: Total Revenue: $26,974 million, with substantial contributions from: Data Center: $15,005 million, showcasing Nvidia's strong position in AI and cloud computing. Gaming: $9,067 million, reflecting its dominance in the gaming GPU market. Professional Visualization: 1,544 million, and Automotive :903 million, indicating growth in specialized markets. Comparison Revenue Focus: Broadcom's revenue is heavily weighted towards hardware products, while Nvidia has a balanced mix with significant revenue from both data center solutions and gaming. Market Segments: Nvidia is more focused on high-growth areas like AI and gaming, whereas Broadcom's offerings are more traditional, centered around infrastructure and connectivity. Growth Areas: Nvidia's growth is driven by advancements in AI and gaming technologies, while Broadcom continues to expand its semiconductor solutions for various industries. In summary, while both companies operate in the tech sector, their product mixes in 2023 reflect different strategic priorities, with Broadcom focusing on infrastructure and connectivity, and Nvidia emphasizing AI and gaming technologies.</t>
+  </si>
+  <si>
+    <t>BROADCOM: Net revenue: Semiconductor solutions $ 25,818  Infrastructure software 7,385 | Total net revenue $ 33,203 | Operating income: Semiconductor solutions $ 15,075  Infrastructure software 5,219  Total operating income $ 14,225 
+NVIDIA:  Compute &amp; Networking | Graphics | All Other Consolidated (In millions) Year Ended January 29, 2023: Revenue $ 15,068 $ 11,906 $ — $ 26,974 Operating income (loss) $ 5,083 $ 4,552 $ (5,411) $ 4,224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadcom (AVGO) generates revenue primarily from two segments: semiconductor solutions and infrastructure software.
+Semiconductor Solutions: This segment includes a variety of products for managing data movement in data centers, service providers, and enterprise networking applications. It encompasses radio frequency devices, wireless connectivity solutions, and products for mobile applications, among others.
+Infrastructure Software: This segment offers software solutions that help customers manage and secure applications across various platforms, including mainframe and cloud environments.
+Revenue Changes Since 2022
+Total Net Revenue: In the fiscal year ending October 30, 2022, Broadcom reported total net revenue of 33,203 million ,a significant increase from 27,450 million in the previous year (2021)【1】.
+Segment Performance: For the three months ended February 4, 2024, Broadcom reported total net revenue of 11,961 million ,which is an increase from 8,915 million for the same period in the previous year (January 29, 2023)【2】【3】.
+Revenue Breakdown: In the most recent quarter, semiconductor solutions generated 7,390 million ,while infrastructure softwa recontributed 4,571 million【4】. This indicates a robust growth trajectory in both segments compared to previous periods.
+Overall, Broadcom has seen a consistent increase in revenue across its segments since 2022, reflecting strong demand for its semiconductor and software solutions.
+Citations
+Broadcom Inc. (AVGO) 10-K report for Oct. 30, 2022.
+Broadcom Inc. (AVGO) 10-Q report for Feb. 04, 2024.
+Broadcom Inc. (AVGO) 10-Q report for Jan. 29, 2023.
+Broadcom Inc. (AVGO) 10-Q report for Feb. 04, 2024 (Segment Information).
+</t>
+  </si>
+  <si>
+    <t>How has Berkshire Hathaway's (BRK-B) investment in the top five company changed from 2022 to 2023?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berkshire Hathaway's investment in its top five companies has seen significant changes from 2022 to 2023. Here are the details:
+American Express Company:
+2022: $22.4 billion
+2023: $28.4 billion
+Apple Inc.:
+2022: $119.0 billion
+2023: $174.3 billion
+Bank of America Corporation:
+2022: $34.2 billion
+2023: $34.8 billion
+The Coca-Cola Company:
+2022: $25.4 billion
+2023: $23.6 billion
+Chevron Corporation:
+2022: $30.0 billion
+2023: $18.8 billion
+Overall, the total investment in these five companies increased from approximately 
+308.8billionin2022toabout
+308.8billionin2022toabout353.8 billion in 2023, representing a concentration of about 79% of the aggregate fair value in these companies in 2023, compared to 75% in 2022 (1).
+Summary of Changes:
+Total Investment: Increased from 
+308.8billionto
+308.8billionto353.8 billion.
+Concentration Percentage: Increased from 75% to 79%.
+Notable Increases: Significant increases in investments in American Express and Apple.
+Notable Decreases: Decrease in investments in The Coca-Cola Company and Chevron.
+These changes reflect Berkshire Hathaway's strategic adjustments in its investment portfolio over the year (1).
+</t>
+  </si>
+  <si>
+    <t>2022 - 10.5% | 2023 - 10.4% | 2024 - 9.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did the cloud business performance of Microsoft, Google, and Amazon compare in 2022?
+Answer:
+The retrieved documents do not contain information about Microsoft's cloud business performance in 2022. However, I can provide details on Google and Amazon's cloud performance based on the available data.
+Google Cloud Performance in 2022
+Google Cloud generated revenues of 26.280billion∗∗fortheyearendedDecember31,2022, upfrom∗∗19.206 billion in 2021.
+Amazon Web Services (AWS) Performance in 2022
+AWS generated revenues of 80.096billion∗∗fortheyearendedDecember31,2022, anincreasefrom∗∗62.202 billion in 2021.
+Comparison
+Amazon AWS significantly outperformed Google Cloud in terms of total revenue in 2022, with AWS earning approximately 
+80.096billion∗∗ comparedto GoogleCloud′s∗∗26.280 billion.
+Unfortunately, without data on Microsoft's cloud performance, a direct comparison including all three companies cannot be made.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadcom (AVGO) and Nvidia (NVDA) have different segment mixes for the year 2022, as outlined in their respective reports.
+Broadcom (AVGO) Segment Mix for 2022
+Broadcom has two reportable segments:
+Semiconductor Solutions
+Total net revenue: $25,818 million
+Operating income: $15,075 million
+Infrastructure Software
+Total net revenue: $7,385 million
+Operating income: $5,219 million
+Overall, Broadcom's total net revenue for the year ended October 30, 2022, was 
+33,203million,withanoperatingincomeof
+33,203million,withanoperatingincomeof14,225 million (Broadcom 10-K report for Oct. 30, 2022).
+Nvidia (NVDA) Segment Mix for 2022
+Nvidia also has two main operating segments:
+Graphics
+Revenue: $15,868 million
+Operating income: $8,492 million
+Compute &amp; Networking
+Revenue: $11,046 million
+Operating income: $4,598 million
+Nvidia's total revenue for the year ended January 29, 2023, was 
+26,974million,withanoperatingincomeof
+26,974million,withanoperatingincomeof4,224 million (Nvidia 10-K report for Jan. 29, 2023).
+Comparison
+Revenue Contribution:
+Broadcom's Semiconductor Solutions segment significantly outperformed Nvidia's Graphics segment in terms of revenue, while Nvidia's Graphics segment had a higher operating income compared to Broadcom's Infrastructure Software segment.
+Operating Income:
+Broadcom's overall operating income was higher than Nvidia's, primarily driven by the strong performance of its Semiconductor Solutions segment.
+In summary, Broadcom's revenue is more heavily weighted towards its Semiconductor Solutions segment, while Nvidia's revenue is more evenly distributed between its Graphics and Compute &amp; Networking segments.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadcom Inc. (AVGO) primarily generates revenue from two main sources: semiconductor solutions and infrastructure software.
+Revenue Sources:
+Semiconductor Solutions: This segment includes a variety of products for managing data movement in data centers, service providers, and enterprise networking applications. It encompasses radio frequency semiconductor devices, wireless connectivity solutions, and products for the automotive and industrial markets.
+Infrastructure Software: This segment provides software solutions that help customers manage and secure applications across various platforms, including mainframe, distributed, and cloud environments.
+Evolution of Revenue Sources Since 2022:
+Fiscal Year 2022:
+Total net revenue from semiconductor solutions was 
+25.8billion∗∗,whileinfrastructuresoftwarecontributed∗∗
+25.8billion∗∗,whileinfrastructuresoftwarecontributed∗∗7.4 billion, leading to a total revenue of $33.2 billion.
+Fiscal Year 2023:
+The trend continued with semiconductor solutions generating 
+20.9billion∗∗andinfrastructuresoftwareat∗∗
+20.9billion∗∗andinfrastructuresoftwareat∗∗5.7 billion, totaling $26.5 billion for the nine months ended July 30, 2023.
+Recent Reports (2024):
+For the three months ended February 4, 2024, semiconductor solutions generated 
+7.39billion∗∗,andinfrastructuresoftwarebroughtin∗∗
+7.39billion∗∗,andinfrastructuresoftwarebroughtin∗∗4.57 billion, totaling $11.96 billion.
+In the six months ended May 5, 2024, semiconductor solutions accounted for 
+14.59billion∗∗,whileinfrastructuresoftwarecontributed∗∗
+14.59billion∗∗,whileinfrastructuresoftwarecontributed∗∗9.86 billion, leading to a total of $24.45 billion.
+Summary of Trends:
+There has been a noticeable growth in both segments, with semiconductor solutions consistently being the larger contributor to revenue. The infrastructure software segment has also shown growth, indicating a diversification in revenue sources and a strong performance in both areas.
+Overall, Broadcom's revenue sources have evolved positively, reflecting a robust demand for both semiconductor products and software solutions, with a significant increase in total revenue from 
+33.2billionin2022∗∗to∗∗
+33.2billionin2022∗∗to∗∗37.5 billion in 2024 (projected for the nine months ended) [source: Broadcom 10-K and 10-Q reports].
+</t>
+  </si>
+  <si>
+    <t>Asking questions with no sources in the DB (data pipeline deficiency)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="16">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FFEEF0FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFE3E3E3"/>
-      <name val="Roboto"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
-      <color rgb="FF808080"/>
+      <sz val="9"/>
+      <color rgb="FFEEF0FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <color rgb="FF808080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1C2127"/>
       <name val="Inter"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1E4F5"/>
+        <bgColor rgb="FFC1E4F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF643F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF25FF88"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -754,6 +1181,7 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -768,6 +1196,7 @@
       <bottom style="double">
         <color rgb="FF156082"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -782,199 +1211,233 @@
       <bottom style="medium">
         <color rgb="FF44B3E1"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="9" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF83CAEB"/>
+          <bgColor rgb="FF83CAEB"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC1E4F5"/>
+          <bgColor rgb="FFC1E4F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF83CAEB"/>
+          <bgColor rgb="FF83CAEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFC1E4F5"/>
           <bgColor rgb="FFC1E4F5"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF83CAEB"/>
-          <bgColor rgb="FF83CAEB"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle count="4" pivot="0" name="questions_and_answers-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" type="totalRow"/>
+    <tableStyle name="questions_and_answers-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="Old questions_and_answers-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" type="totalRow"/>
+    <tableStyle name="Old questions_and_answers-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="totalRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF61"/>
+      <color rgb="FF25FF88"/>
+      <color rgb="FFFF643F"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -983,7 +1446,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -991,7 +1454,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" sz="1400">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1004,10 +1467,13 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1016,7 +1482,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="156082"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1024,22 +1490,76 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>Analysis!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Standard LLM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive RAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Self-RAG</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Analysis!$B$3:$B$5</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6F9-49CF-AAD4-6771698A33E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="587141906"/>
         <c:axId val="1496644846"/>
       </c:barChart>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1048,7 +1568,7 @@
             <c:v>Mean Absolute Percentage Error</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1060,16 +1580,55 @@
           <c:cat>
             <c:strRef>
               <c:f>Analysis!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Standard LLM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive RAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Self-RAG</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Analysis!$C$3:$C$5</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.13406774141270472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8114726601811484E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5930405478771344E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6F9-49CF-AAD4-6771698A33E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="587141906"/>
         <c:axId val="1496644846"/>
       </c:lineChart>
@@ -1094,15 +1653,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1111,22 +1662,28 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1496644846"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1496644846"/>
@@ -1151,7 +1708,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1159,7 +1716,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" sz="1000">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1172,7 +1729,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1184,16 +1741,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="587141906"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1204,23 +1764,35 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" i="0" sz="900">
+            <a:defRPr sz="900" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1229,7 +1801,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1237,7 +1809,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" sz="1400">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1250,11 +1822,13 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1263,7 +1837,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="156082"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1271,17 +1845,25 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0" sz="900">
+                  <a:defRPr sz="900" b="1" i="0">
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1290,18 +1872,67 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Analysis!$E$3:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Standard LLM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive RAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Self-RAG</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Analysis!$F$3:$F$5</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E2A-4DDF-8324-F8432AB587D6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1311,7 +1942,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="E97132"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1319,17 +1950,25 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0" sz="900">
+                  <a:defRPr sz="900" b="1" i="0">
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1338,18 +1977,67 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Analysis!$E$3:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Standard LLM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive RAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Self-RAG</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Analysis!$G$3:$G$5</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E2A-4DDF-8324-F8432AB587D6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1367,17 +2055,25 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0" sz="900">
+                  <a:defRPr sz="900" b="1" i="0">
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1386,19 +2082,77 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Analysis!$E$3:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Standard LLM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive RAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Self-RAG</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Analysis!$H$3:$H$5</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E2A-4DDF-8324-F8432AB587D6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="158745688"/>
         <c:axId val="1735570655"/>
@@ -1424,15 +2178,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1441,28 +2187,34 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1735570655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1735570655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.0"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1482,7 +2234,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1490,7 +2242,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" sz="1000">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1515,16 +2267,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="158745688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1535,27 +2290,31 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" i="0" sz="900">
+            <a:defRPr sz="900" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1564,9 +2323,15 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4905375" cy="2695575"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1575,7 +2340,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1589,9 +2354,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4905375" cy="2695575"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1600,7 +2371,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1609,46 +2380,26 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I22" displayName="Table_1" name="Table_1" id="1">
-  <tableColumns count="9">
-    <tableColumn name="Question" id="1"/>
-    <tableColumn name="Question Type" id="2"/>
-    <tableColumn name="Answer" id="3"/>
-    <tableColumn name="Base LLM (GPT-4o)" id="4"/>
-    <tableColumn name="Absolute percentage error" id="5"/>
-    <tableColumn name="Naïve RAG" id="6"/>
-    <tableColumn name="Absolute percentage error2" id="7"/>
-    <tableColumn name="Self-RAG + Reranking" id="8"/>
-    <tableColumn name="Absolute percentage error3" id="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:J22">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Question"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Answer"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Base LLM (GPT-4o)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Absolute percentage error"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Naïve RAG"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Absolute percentage error2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Self-RAG"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Absolute percentage error3"/>
+    <tableColumn id="10" xr3:uid="{A3BEFDDB-48B2-477A-934D-A4F8B9921931}" name="NOTES"/>
   </tableColumns>
-  <tableStyleInfo name="questions_and_answers-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" totalsRowCount="1" ref="A1:I22" displayName="Table_2" name="Table_2" id="2">
-  <tableColumns count="9">
-    <tableColumn name="Question" id="1"/>
-    <tableColumn name="Question Type" id="2"/>
-    <tableColumn name="Answer" id="3"/>
-    <tableColumn name="Base LLM (GPT-4o)" id="4"/>
-    <tableColumn totalsRowFunction="custom" name="Absolute percentage error" id="5"/>
-    <tableColumn name="Naïve RAG" id="6"/>
-    <tableColumn totalsRowFunction="custom" name="Absolute percentage error2" id="7"/>
-    <tableColumn name="Self-RAG + Reranking" id="8"/>
-    <tableColumn totalsRowFunction="custom" name="Absolute percentage error3" id="9"/>
-  </tableColumns>
-  <tableStyleInfo name="Old questions_and_answers-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="questions_and_answers-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1838,31 +2589,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="179.0"/>
-    <col customWidth="1" min="2" max="2" width="26.75"/>
-    <col customWidth="1" min="3" max="3" width="86.5"/>
-    <col customWidth="1" min="4" max="4" width="255.5"/>
-    <col customWidth="1" min="5" max="5" width="10.5"/>
-    <col customWidth="1" min="6" max="6" width="338.63"/>
-    <col customWidth="1" min="7" max="7" width="15.75"/>
-    <col customWidth="1" min="8" max="8" width="64.88"/>
-    <col customWidth="1" min="9" max="26" width="8.63"/>
+    <col min="1" max="1" width="179" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="86.42578125" customWidth="1"/>
+    <col min="4" max="4" width="255.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="338.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="64.85546875" customWidth="1"/>
+    <col min="9" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,700 +2638,783 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3">
+        <v>69</v>
+      </c>
+      <c r="G3" s="28">
         <f>(34.67-29.81)/29.81</f>
-        <v>0.1630325394</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
+        <v>0.16303253941630336</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>70</v>
       </c>
       <c r="I3" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="72">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0</v>
+        <f>ABS(12462-12500)/12462</f>
+        <v>3.0492697801316002E-3</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="G4" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I4" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" ht="17.25" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="6" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="39">
+        <v>5.2132701421800945E-2</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="14">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="I12" s="43">
+        <f>0.7/45.53</f>
+        <v>1.5374478365912584E-2</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
       <c r="H13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="I13" s="43">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1">
         <f>(379+1440)/(2121+1560)</f>
-        <v>0.4941591959</v>
+        <v>0.4941591958706873</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="I14" s="43">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
         <f>(1.7+2.3)/(25.6+76.8)</f>
-        <v>0.0390625</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="G15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="43">
+        <f>(76.8-67.4)/(25.6+76.8)</f>
+        <v>9.1796874999999917E-2</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0.104</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="3">
-        <f>2.1/10.4</f>
-        <v>0.2019230769</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
       <c r="H16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="I16" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>81</v>
+        <v>143</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+      <c r="F18" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>85</v>
+        <v>36</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="6" t="s">
-        <v>12</v>
+      <c r="F19" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+      <c r="H19" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="6" t="s">
-        <v>89</v>
+      <c r="F20" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+      <c r="H20" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="6" t="s">
-        <v>92</v>
+      <c r="F21" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="1"/>
+      <c r="H21" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <f>AVERAGE(E2:E21)</f>
+        <v>0.13406774141270472</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="38">
+        <f>AVERAGE(G2:G21)</f>
+        <v>1.8114726601811484E-2</v>
+      </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="19">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="19">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="19">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="21">
-        <v>2022.0</v>
-      </c>
-      <c r="C39" s="19">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="B40" s="21">
-        <v>2023.0</v>
-      </c>
-      <c r="C40" s="19">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="21">
-        <v>2024.0</v>
-      </c>
-      <c r="C41" s="19">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="19">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="24"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="25"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="22"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="24"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="25"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="22"/>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="24"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="25"/>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="22"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="24"/>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="25"/>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="22"/>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="26"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="27"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+      <c r="I22" s="41">
+        <f>AVERAGE(I2:I21)</f>
+        <v>1.5930405478771344E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A24" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A25" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A26" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B39" s="14"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B40" s="14"/>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B41" s="14"/>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A43" s="16"/>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" s="46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" s="47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A49" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A50" s="17"/>
+    </row>
+    <row r="51" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A51" s="15"/>
+    </row>
+    <row r="52" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A52" s="16"/>
+    </row>
+    <row r="53" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A53" s="17"/>
+    </row>
+    <row r="54" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A54" s="15"/>
+    </row>
+    <row r="55" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A55" s="18"/>
+    </row>
+    <row r="56" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A56" s="19"/>
+    </row>
+    <row r="57" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -3516,149 +4352,148 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.63"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="8.88"/>
-    <col customWidth="1" min="4" max="26" width="8.63"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="30">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="22">
         <v>0.4</v>
       </c>
-      <c r="C3" s="31">
-        <v>0.1705</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="G3" s="33">
-        <v>3.0</v>
-      </c>
-      <c r="H3" s="33">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="35">
-        <v>0.6</v>
-      </c>
-      <c r="C4" s="31">
-        <v>0.0142</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="G4" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="H4" s="33">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="35">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="36">
-        <v>0.014</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="37">
-        <v>4.0</v>
-      </c>
-      <c r="G5" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="H5" s="33">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+      <c r="C3" s="35">
+        <f>questions_and_answers!E22</f>
+        <v>0.13406774141270472</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25">
+        <v>5</v>
+      </c>
+      <c r="H3" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="23">
+        <f>questions_and_answers!G22</f>
+        <v>1.8114726601811484E-2</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="24">
+        <v>6</v>
+      </c>
+      <c r="G4" s="25">
+        <v>3</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <f>questions_and_answers!I22</f>
+        <v>1.5930405478771344E-2</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="27">
+        <v>7</v>
+      </c>
+      <c r="G5" s="25">
+        <v>3</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4644,1469 +5479,8 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="179.0"/>
-    <col customWidth="1" min="2" max="2" width="24.5"/>
-    <col customWidth="1" min="3" max="3" width="86.5"/>
-    <col customWidth="1" min="4" max="4" width="255.5"/>
-    <col customWidth="1" min="5" max="5" width="10.5"/>
-    <col customWidth="1" min="6" max="7" width="255.5"/>
-    <col customWidth="1" min="8" max="8" width="64.88"/>
-    <col customWidth="1" min="9" max="26" width="8.63"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="38">
-        <f>(0.13/1.87) + (0.31/7.69)</f>
-        <v>0.1098308102</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="38">
-        <f>(0.13/1.87) + (0.31/7.69)</f>
-        <v>0.1098308102</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="39">
-        <v>0.163</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="11">
-        <f>ABS(14.6-16.3)/16.3</f>
-        <v>0.1042944785</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="11">
-        <f>ABS(40665-23250)/40665</f>
-        <v>0.4282552564</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X6" s="42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="11">
-        <f>ABS(9.74-11)/9.74</f>
-        <v>0.1293634497</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="1">
-        <f>0.04/9.7</f>
-        <v>0.00412371134</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="12">
-        <f>0.02/9.7</f>
-        <v>0.00206185567</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <f>AVERAGE('Old questions_and_answers'!$E$2:$E$21)</f>
-        <v>0.2206377282</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="11">
-        <f>AVERAGE('Old questions_and_answers'!$G$2:$G$21)</f>
-        <v>0.01627921736</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="12">
-        <f>AVERAGE('Old questions_and_answers'!$I$2:$I$21)</f>
-        <v>0.01598466655</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
 </file>